--- a/backend/VVL.xlsx
+++ b/backend/VVL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="371">
   <si>
     <t xml:space="preserve">Фамилия, Имя, Отчество</t>
   </si>
@@ -321,25 +321,7 @@
     <t xml:space="preserve">Двутавр 45Б2</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Двутавр 45</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">M</t>
-    </r>
+    <t xml:space="preserve">Двутавр 45M</t>
   </si>
   <si>
     <t xml:space="preserve">Двутавр 50Ш1 </t>
@@ -943,6 +925,9 @@
   </si>
   <si>
     <t xml:space="preserve">Связь вертикальная</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Связь верт.</t>
   </si>
   <si>
     <t xml:space="preserve">Связь горизонтальная</t>
@@ -1171,7 +1156,7 @@
     <numFmt numFmtId="169" formatCode="0"/>
     <numFmt numFmtId="170" formatCode="0.0"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1230,12 +1215,6 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
     </font>
     <font>
       <b val="true"/>
@@ -1548,11 +1527,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1584,11 +1563,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1600,11 +1579,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1612,7 +1591,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1620,7 +1599,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1628,19 +1607,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1652,7 +1631,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1688,7 +1667,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2689,11 +2668,11 @@
   </sheetPr>
   <dimension ref="A1:R161"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="26.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="12" width="19.85"/>
@@ -5164,7 +5143,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="26" width="14.15"/>
@@ -8470,7 +8449,7 @@
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.42"/>
   </cols>
@@ -8693,7 +8672,7 @@
       <selection pane="topLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.57"/>
@@ -8985,18 +8964,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T869"/>
+  <dimension ref="A1:T889"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A251" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E268" activeCellId="0" sqref="E268"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="52" width="10.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="52" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="52" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.69"/>
@@ -10295,7 +10274,7 @@
         <v>25</v>
       </c>
       <c r="E68" s="24" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="F68" s="57" t="n">
         <v>1</v>
@@ -10456,7 +10435,7 @@
         <v>25</v>
       </c>
       <c r="E75" s="24" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="F75" s="57" t="n">
         <v>1</v>
@@ -10617,7 +10596,7 @@
         <v>25</v>
       </c>
       <c r="E82" s="24" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="F82" s="57" t="n">
         <v>1</v>
@@ -10778,7 +10757,7 @@
         <v>25</v>
       </c>
       <c r="E89" s="24" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="F89" s="57" t="n">
         <v>1</v>
@@ -10939,7 +10918,7 @@
         <v>25</v>
       </c>
       <c r="E96" s="24" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="F96" s="57" t="n">
         <v>1</v>
@@ -11100,7 +11079,7 @@
         <v>25</v>
       </c>
       <c r="E103" s="24" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="F103" s="57" t="n">
         <v>1</v>
@@ -11261,7 +11240,7 @@
         <v>25</v>
       </c>
       <c r="E110" s="24" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="F110" s="57" t="n">
         <v>1</v>
@@ -14794,13 +14773,17 @@
         <v>287</v>
       </c>
       <c r="B264" s="56" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C264" s="56" t="n">
         <v>14</v>
       </c>
-      <c r="D264" s="24"/>
-      <c r="E264" s="24"/>
+      <c r="D264" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E264" s="24" t="n">
+        <v>1000</v>
+      </c>
       <c r="F264" s="57" t="n">
         <v>1</v>
       </c>
@@ -14813,13 +14796,17 @@
         <v>287</v>
       </c>
       <c r="B265" s="56" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C265" s="56" t="n">
         <v>16</v>
       </c>
-      <c r="D265" s="56"/>
-      <c r="E265" s="24"/>
+      <c r="D265" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E265" s="24" t="n">
+        <v>1000</v>
+      </c>
       <c r="F265" s="57" t="n">
         <v>1</v>
       </c>
@@ -14837,8 +14824,12 @@
       <c r="C266" s="56" t="n">
         <v>24</v>
       </c>
-      <c r="D266" s="56"/>
-      <c r="E266" s="24"/>
+      <c r="D266" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E266" s="24" t="n">
+        <v>1000</v>
+      </c>
       <c r="F266" s="57" t="n">
         <v>1</v>
       </c>
@@ -14856,8 +14847,12 @@
       <c r="C267" s="56" t="n">
         <v>30</v>
       </c>
-      <c r="D267" s="56"/>
-      <c r="E267" s="24"/>
+      <c r="D267" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E267" s="24" t="n">
+        <v>1000</v>
+      </c>
       <c r="F267" s="57" t="n">
         <v>1</v>
       </c>
@@ -14870,13 +14865,17 @@
         <v>287</v>
       </c>
       <c r="B268" s="56" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C268" s="56" t="n">
         <v>36</v>
       </c>
-      <c r="D268" s="56"/>
-      <c r="E268" s="24"/>
+      <c r="D268" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E268" s="24" t="n">
+        <v>1000</v>
+      </c>
       <c r="F268" s="57" t="n">
         <v>1</v>
       </c>
@@ -14889,13 +14888,17 @@
         <v>287</v>
       </c>
       <c r="B269" s="56" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C269" s="56" t="n">
-        <v>45</v>
-      </c>
-      <c r="D269" s="56"/>
-      <c r="E269" s="24"/>
+        <v>10000</v>
+      </c>
+      <c r="D269" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E269" s="24" t="n">
+        <v>1000</v>
+      </c>
       <c r="F269" s="57" t="n">
         <v>1</v>
       </c>
@@ -16305,10 +16308,18 @@
       <c r="A331" s="58" t="s">
         <v>291</v>
       </c>
-      <c r="B331" s="56"/>
-      <c r="C331" s="56"/>
-      <c r="D331" s="56"/>
-      <c r="E331" s="24"/>
+      <c r="B331" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C331" s="56" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D331" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E331" s="24" t="n">
+        <v>10000</v>
+      </c>
       <c r="F331" s="57" t="n">
         <v>1</v>
       </c>
@@ -18765,7 +18776,7 @@
         <v>200</v>
       </c>
       <c r="C438" s="56" t="n">
-        <v>300</v>
+        <v>10000</v>
       </c>
       <c r="D438" s="56" t="n">
         <v>0</v>
@@ -18788,7 +18799,7 @@
         <v>200</v>
       </c>
       <c r="C439" s="56" t="n">
-        <v>300</v>
+        <v>10000</v>
       </c>
       <c r="D439" s="58" t="n">
         <v>5</v>
@@ -18811,7 +18822,7 @@
         <v>200</v>
       </c>
       <c r="C440" s="56" t="n">
-        <v>300</v>
+        <v>10000</v>
       </c>
       <c r="D440" s="58" t="n">
         <v>7</v>
@@ -18834,13 +18845,13 @@
         <v>200</v>
       </c>
       <c r="C441" s="56" t="n">
-        <v>300</v>
+        <v>10000</v>
       </c>
       <c r="D441" s="58" t="n">
         <v>10</v>
       </c>
       <c r="E441" s="58" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="F441" s="57" t="n">
         <v>1</v>
@@ -20352,7 +20363,7 @@
         <v>200</v>
       </c>
       <c r="C507" s="56" t="n">
-        <v>300</v>
+        <v>10000</v>
       </c>
       <c r="D507" s="56" t="n">
         <v>0</v>
@@ -20375,7 +20386,7 @@
         <v>200</v>
       </c>
       <c r="C508" s="56" t="n">
-        <v>300</v>
+        <v>10000</v>
       </c>
       <c r="D508" s="56" t="n">
         <v>5</v>
@@ -20398,7 +20409,7 @@
         <v>200</v>
       </c>
       <c r="C509" s="56" t="n">
-        <v>300</v>
+        <v>10000</v>
       </c>
       <c r="D509" s="56" t="n">
         <v>7</v>
@@ -20421,13 +20432,13 @@
         <v>200</v>
       </c>
       <c r="C510" s="56" t="n">
-        <v>300</v>
+        <v>10000</v>
       </c>
       <c r="D510" s="56" t="n">
         <v>10</v>
       </c>
       <c r="E510" s="58" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="F510" s="57" t="n">
         <v>1</v>
@@ -21364,19 +21375,19 @@
         <v>0</v>
       </c>
       <c r="C551" s="56" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D551" s="56" t="n">
         <v>0</v>
       </c>
       <c r="E551" s="58" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="F551" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G551" s="57" t="n">
-        <v>516</v>
+        <v>306</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21384,22 +21395,22 @@
         <v>300</v>
       </c>
       <c r="B552" s="56" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="C552" s="56" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="D552" s="56" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E552" s="58" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="F552" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G552" s="57" t="n">
-        <v>444</v>
+        <v>402</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21407,22 +21418,22 @@
         <v>300</v>
       </c>
       <c r="B553" s="56" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="C553" s="56" t="n">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="D553" s="56" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E553" s="58" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="F553" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G553" s="57" t="n">
-        <v>372</v>
+        <v>552</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21430,22 +21441,22 @@
         <v>300</v>
       </c>
       <c r="B554" s="56" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C554" s="56" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="D554" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E554" s="24" t="n">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="E554" s="58" t="n">
+        <v>15</v>
       </c>
       <c r="F554" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G554" s="57" t="n">
-        <v>198</v>
+        <v>720</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21453,22 +21464,22 @@
         <v>300</v>
       </c>
       <c r="B555" s="56" t="n">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="C555" s="56" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="D555" s="56" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E555" s="58" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="F555" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G555" s="57" t="n">
-        <v>240</v>
+        <v>204</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21476,22 +21487,22 @@
         <v>300</v>
       </c>
       <c r="B556" s="56" t="n">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="C556" s="56" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="D556" s="56" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E556" s="58" t="n">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="F556" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G556" s="57" t="n">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21499,22 +21510,22 @@
         <v>300</v>
       </c>
       <c r="B557" s="56" t="n">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="C557" s="56" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="D557" s="56" t="n">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="E557" s="58" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="F557" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G557" s="57" t="n">
-        <v>306</v>
+        <v>366</v>
       </c>
     </row>
     <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21522,22 +21533,22 @@
         <v>300</v>
       </c>
       <c r="B558" s="56" t="n">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="C558" s="56" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="D558" s="56" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E558" s="58" t="n">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="F558" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G558" s="57" t="n">
-        <v>330</v>
+        <v>480</v>
       </c>
     </row>
     <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21545,22 +21556,22 @@
         <v>300</v>
       </c>
       <c r="B559" s="56" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C559" s="56" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="D559" s="56" t="n">
         <v>0</v>
       </c>
-      <c r="E559" s="24" t="n">
-        <v>20</v>
+      <c r="E559" s="58" t="n">
+        <v>5</v>
       </c>
       <c r="F559" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G559" s="57" t="n">
-        <v>164</v>
+        <v>126</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21568,22 +21579,22 @@
         <v>300</v>
       </c>
       <c r="B560" s="56" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C560" s="56" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="D560" s="56" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E560" s="58" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="F560" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G560" s="57" t="n">
-        <v>200</v>
+        <v>162</v>
       </c>
     </row>
     <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21591,22 +21602,22 @@
         <v>300</v>
       </c>
       <c r="B561" s="56" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C561" s="56" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="D561" s="56" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="E561" s="58" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F561" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G561" s="57" t="n">
-        <v>232</v>
+        <v>216</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21614,22 +21625,22 @@
         <v>300</v>
       </c>
       <c r="B562" s="56" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C562" s="56" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="D562" s="56" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E562" s="58" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="F562" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G562" s="57" t="n">
-        <v>256</v>
+        <v>300</v>
       </c>
     </row>
     <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21637,22 +21648,22 @@
         <v>300</v>
       </c>
       <c r="B563" s="56" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C563" s="56" t="n">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="D563" s="56" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E563" s="58" t="n">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="F563" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G563" s="57" t="n">
-        <v>272</v>
+        <v>84</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21660,22 +21671,22 @@
         <v>300</v>
       </c>
       <c r="B564" s="56" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="C564" s="56" t="n">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="D564" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E564" s="24" t="n">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="E564" s="58" t="n">
+        <v>7</v>
       </c>
       <c r="F564" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G564" s="57" t="n">
-        <v>171</v>
+        <v>120</v>
       </c>
     </row>
     <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21683,22 +21694,22 @@
         <v>300</v>
       </c>
       <c r="B565" s="56" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="C565" s="56" t="n">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="D565" s="56" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E565" s="58" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F565" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G565" s="57" t="n">
-        <v>192</v>
+        <v>156</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21706,22 +21717,22 @@
         <v>300</v>
       </c>
       <c r="B566" s="56" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="C566" s="56" t="n">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="D566" s="56" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E566" s="58" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F566" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G566" s="57" t="n">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21729,22 +21740,22 @@
         <v>300</v>
       </c>
       <c r="B567" s="56" t="n">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="C567" s="56" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="D567" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E567" s="58" t="n">
+        <v>5</v>
+      </c>
+      <c r="F567" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G567" s="57" t="n">
         <v>60</v>
-      </c>
-      <c r="E567" s="58" t="n">
-        <v>80</v>
-      </c>
-      <c r="F567" s="57" t="n">
-        <v>1</v>
-      </c>
-      <c r="G567" s="57" t="n">
-        <v>231</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21752,22 +21763,22 @@
         <v>300</v>
       </c>
       <c r="B568" s="56" t="n">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="C568" s="56" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="D568" s="56" t="n">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="E568" s="58" t="n">
-        <v>120</v>
+        <v>7</v>
       </c>
       <c r="F568" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G568" s="57" t="n">
-        <v>243</v>
+        <v>78</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21775,22 +21786,22 @@
         <v>300</v>
       </c>
       <c r="B569" s="56" t="n">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="C569" s="56" t="n">
-        <v>2500</v>
+        <v>300</v>
       </c>
       <c r="D569" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E569" s="24" t="n">
-        <v>20</v>
+        <v>7</v>
+      </c>
+      <c r="E569" s="58" t="n">
+        <v>10</v>
       </c>
       <c r="F569" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G569" s="57" t="n">
-        <v>177.6</v>
+        <v>108</v>
       </c>
     </row>
     <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21798,102 +21809,102 @@
         <v>300</v>
       </c>
       <c r="B570" s="56" t="n">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="C570" s="56" t="n">
-        <v>2500</v>
+        <v>300</v>
       </c>
       <c r="D570" s="56" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E570" s="58" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="F570" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G570" s="57" t="n">
-        <v>189.6</v>
+        <v>144</v>
       </c>
     </row>
     <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="58" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B571" s="56" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="C571" s="56" t="n">
-        <v>2500</v>
+        <v>200</v>
       </c>
       <c r="D571" s="56" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E571" s="58" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="F571" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G571" s="57" t="n">
-        <v>201.6</v>
+        <v>516</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="58" t="s">
+        <v>301</v>
+      </c>
+      <c r="B572" s="56" t="n">
+        <v>200</v>
+      </c>
+      <c r="C572" s="56" t="n">
         <v>300</v>
       </c>
-      <c r="B572" s="56" t="n">
-        <v>2000</v>
-      </c>
-      <c r="C572" s="56" t="n">
-        <v>2500</v>
-      </c>
       <c r="D572" s="56" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E572" s="58" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="F572" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G572" s="57" t="n">
-        <v>213.6</v>
+        <v>444</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="58" t="s">
+        <v>301</v>
+      </c>
+      <c r="B573" s="56" t="n">
         <v>300</v>
       </c>
-      <c r="B573" s="56" t="n">
-        <v>2000</v>
-      </c>
       <c r="C573" s="56" t="n">
-        <v>2500</v>
+        <v>400</v>
       </c>
       <c r="D573" s="56" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E573" s="58" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="F573" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G573" s="57" t="n">
-        <v>225.6</v>
+        <v>372</v>
       </c>
     </row>
     <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="58" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B574" s="56" t="n">
-        <v>2500</v>
+        <v>400</v>
       </c>
       <c r="C574" s="56" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="D574" s="56" t="n">
         <v>0</v>
@@ -21905,18 +21916,18 @@
         <v>1</v>
       </c>
       <c r="G574" s="57" t="n">
-        <v>142</v>
+        <v>198</v>
       </c>
     </row>
     <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="58" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B575" s="56" t="n">
-        <v>2500</v>
+        <v>400</v>
       </c>
       <c r="C575" s="56" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="D575" s="56" t="n">
         <v>20</v>
@@ -21928,18 +21939,18 @@
         <v>1</v>
       </c>
       <c r="G575" s="57" t="n">
-        <v>166</v>
+        <v>240</v>
       </c>
     </row>
     <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="58" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B576" s="56" t="n">
-        <v>2500</v>
+        <v>400</v>
       </c>
       <c r="C576" s="56" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="D576" s="56" t="n">
         <v>40</v>
@@ -21951,18 +21962,18 @@
         <v>1</v>
       </c>
       <c r="G576" s="57" t="n">
-        <v>188</v>
+        <v>276</v>
       </c>
     </row>
     <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="58" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B577" s="56" t="n">
-        <v>2500</v>
+        <v>400</v>
       </c>
       <c r="C577" s="56" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="D577" s="56" t="n">
         <v>60</v>
@@ -21974,18 +21985,18 @@
         <v>1</v>
       </c>
       <c r="G577" s="57" t="n">
-        <v>210</v>
+        <v>306</v>
       </c>
     </row>
     <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="58" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B578" s="56" t="n">
-        <v>2500</v>
+        <v>400</v>
       </c>
       <c r="C578" s="56" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="D578" s="56" t="n">
         <v>80</v>
@@ -21997,7 +22008,7 @@
         <v>1</v>
       </c>
       <c r="G578" s="57" t="n">
-        <v>220</v>
+        <v>330</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22005,22 +22016,22 @@
         <v>301</v>
       </c>
       <c r="B579" s="56" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="C579" s="56" t="n">
-        <v>50</v>
+        <v>1500</v>
       </c>
       <c r="D579" s="56" t="n">
         <v>0</v>
       </c>
-      <c r="E579" s="58" t="n">
-        <v>5</v>
+      <c r="E579" s="24" t="n">
+        <v>20</v>
       </c>
       <c r="F579" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G579" s="57" t="n">
-        <v>306</v>
+        <v>164</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22028,22 +22039,22 @@
         <v>301</v>
       </c>
       <c r="B580" s="56" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="C580" s="56" t="n">
-        <v>50</v>
+        <v>1500</v>
       </c>
       <c r="D580" s="56" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E580" s="58" t="n">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="F580" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G580" s="57" t="n">
-        <v>402</v>
+        <v>200</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22051,22 +22062,22 @@
         <v>301</v>
       </c>
       <c r="B581" s="56" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="C581" s="56" t="n">
-        <v>50</v>
+        <v>1500</v>
       </c>
       <c r="D581" s="56" t="n">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="E581" s="58" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F581" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G581" s="57" t="n">
-        <v>552</v>
+        <v>232</v>
       </c>
     </row>
     <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22074,22 +22085,22 @@
         <v>301</v>
       </c>
       <c r="B582" s="56" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="C582" s="56" t="n">
-        <v>50</v>
+        <v>1500</v>
       </c>
       <c r="D582" s="56" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E582" s="58" t="n">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="F582" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G582" s="57" t="n">
-        <v>720</v>
+        <v>256</v>
       </c>
     </row>
     <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22097,22 +22108,22 @@
         <v>301</v>
       </c>
       <c r="B583" s="56" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="C583" s="56" t="n">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="D583" s="56" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E583" s="58" t="n">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="F583" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G583" s="57" t="n">
-        <v>204</v>
+        <v>272</v>
       </c>
     </row>
     <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22120,22 +22131,22 @@
         <v>301</v>
       </c>
       <c r="B584" s="56" t="n">
-        <v>50</v>
+        <v>1500</v>
       </c>
       <c r="C584" s="56" t="n">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="D584" s="56" t="n">
-        <v>5</v>
-      </c>
-      <c r="E584" s="58" t="n">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="E584" s="24" t="n">
+        <v>20</v>
       </c>
       <c r="F584" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G584" s="57" t="n">
-        <v>270</v>
+        <v>171</v>
       </c>
     </row>
     <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22143,22 +22154,22 @@
         <v>301</v>
       </c>
       <c r="B585" s="56" t="n">
-        <v>50</v>
+        <v>1500</v>
       </c>
       <c r="C585" s="56" t="n">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="D585" s="56" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E585" s="58" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F585" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G585" s="57" t="n">
-        <v>366</v>
+        <v>192</v>
       </c>
     </row>
     <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22166,22 +22177,22 @@
         <v>301</v>
       </c>
       <c r="B586" s="56" t="n">
-        <v>50</v>
+        <v>1500</v>
       </c>
       <c r="C586" s="56" t="n">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="D586" s="56" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E586" s="58" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F586" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G586" s="57" t="n">
-        <v>480</v>
+        <v>213</v>
       </c>
     </row>
     <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22189,22 +22200,22 @@
         <v>301</v>
       </c>
       <c r="B587" s="56" t="n">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="C587" s="56" t="n">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="D587" s="56" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E587" s="58" t="n">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="F587" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G587" s="57" t="n">
-        <v>126</v>
+        <v>231</v>
       </c>
     </row>
     <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22212,22 +22223,22 @@
         <v>301</v>
       </c>
       <c r="B588" s="56" t="n">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="C588" s="56" t="n">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="D588" s="56" t="n">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="E588" s="58" t="n">
-        <v>7</v>
+        <v>120</v>
       </c>
       <c r="F588" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G588" s="57" t="n">
-        <v>162</v>
+        <v>243</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22235,22 +22246,22 @@
         <v>301</v>
       </c>
       <c r="B589" s="56" t="n">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="C589" s="56" t="n">
-        <v>150</v>
+        <v>2500</v>
       </c>
       <c r="D589" s="56" t="n">
-        <v>7</v>
-      </c>
-      <c r="E589" s="58" t="n">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="E589" s="24" t="n">
+        <v>20</v>
       </c>
       <c r="F589" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G589" s="57" t="n">
-        <v>216</v>
+        <v>177.6</v>
       </c>
     </row>
     <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22258,22 +22269,22 @@
         <v>301</v>
       </c>
       <c r="B590" s="56" t="n">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="C590" s="56" t="n">
-        <v>150</v>
+        <v>2500</v>
       </c>
       <c r="D590" s="56" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E590" s="58" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F590" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G590" s="57" t="n">
-        <v>300</v>
+        <v>189.6</v>
       </c>
     </row>
     <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22281,22 +22292,22 @@
         <v>301</v>
       </c>
       <c r="B591" s="56" t="n">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="C591" s="56" t="n">
-        <v>200</v>
+        <v>2500</v>
       </c>
       <c r="D591" s="56" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E591" s="58" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="F591" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G591" s="57" t="n">
-        <v>84</v>
+        <v>201.6</v>
       </c>
     </row>
     <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22304,22 +22315,22 @@
         <v>301</v>
       </c>
       <c r="B592" s="56" t="n">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="C592" s="56" t="n">
-        <v>200</v>
+        <v>2500</v>
       </c>
       <c r="D592" s="56" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="E592" s="58" t="n">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="F592" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G592" s="57" t="n">
-        <v>120</v>
+        <v>213.6</v>
       </c>
     </row>
     <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22327,22 +22338,22 @@
         <v>301</v>
       </c>
       <c r="B593" s="56" t="n">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="C593" s="56" t="n">
-        <v>200</v>
+        <v>2500</v>
       </c>
       <c r="D593" s="56" t="n">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="E593" s="58" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="F593" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G593" s="57" t="n">
-        <v>156</v>
+        <v>225.6</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22350,22 +22361,22 @@
         <v>301</v>
       </c>
       <c r="B594" s="56" t="n">
-        <v>150</v>
+        <v>2500</v>
       </c>
       <c r="C594" s="56" t="n">
-        <v>200</v>
+        <v>3000</v>
       </c>
       <c r="D594" s="56" t="n">
-        <v>10</v>
-      </c>
-      <c r="E594" s="58" t="n">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="E594" s="24" t="n">
+        <v>20</v>
       </c>
       <c r="F594" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G594" s="57" t="n">
-        <v>216</v>
+        <v>142</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22373,22 +22384,22 @@
         <v>301</v>
       </c>
       <c r="B595" s="56" t="n">
-        <v>200</v>
+        <v>2500</v>
       </c>
       <c r="C595" s="56" t="n">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="D595" s="56" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E595" s="58" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="F595" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G595" s="57" t="n">
-        <v>60</v>
+        <v>166</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22396,22 +22407,22 @@
         <v>301</v>
       </c>
       <c r="B596" s="56" t="n">
-        <v>200</v>
+        <v>2500</v>
       </c>
       <c r="C596" s="56" t="n">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="D596" s="56" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="E596" s="58" t="n">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="F596" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G596" s="57" t="n">
-        <v>78</v>
+        <v>188</v>
       </c>
     </row>
     <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22419,22 +22430,22 @@
         <v>301</v>
       </c>
       <c r="B597" s="56" t="n">
-        <v>200</v>
+        <v>2500</v>
       </c>
       <c r="C597" s="56" t="n">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="D597" s="56" t="n">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="E597" s="58" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="F597" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G597" s="57" t="n">
-        <v>108</v>
+        <v>210</v>
       </c>
     </row>
     <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22442,22 +22453,22 @@
         <v>301</v>
       </c>
       <c r="B598" s="56" t="n">
-        <v>200</v>
+        <v>2500</v>
       </c>
       <c r="C598" s="56" t="n">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="D598" s="56" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="E598" s="58" t="n">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="F598" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G598" s="57" t="n">
-        <v>144</v>
+        <v>220</v>
       </c>
     </row>
     <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22928,19 +22939,19 @@
         <v>0</v>
       </c>
       <c r="C619" s="56" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="D619" s="56" t="n">
         <v>0</v>
       </c>
-      <c r="E619" s="24" t="n">
+      <c r="E619" s="58" t="n">
         <v>5</v>
       </c>
       <c r="F619" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G619" s="57" t="n">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22951,19 +22962,19 @@
         <v>0</v>
       </c>
       <c r="C620" s="56" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="D620" s="56" t="n">
         <v>5</v>
       </c>
-      <c r="E620" s="24" t="n">
-        <v>10</v>
+      <c r="E620" s="58" t="n">
+        <v>7</v>
       </c>
       <c r="F620" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G620" s="57" t="n">
-        <v>324</v>
+        <v>402</v>
       </c>
     </row>
     <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22974,19 +22985,19 @@
         <v>0</v>
       </c>
       <c r="C621" s="56" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="D621" s="56" t="n">
+        <v>7</v>
+      </c>
+      <c r="E621" s="58" t="n">
         <v>10</v>
       </c>
-      <c r="E621" s="24" t="n">
-        <v>20</v>
-      </c>
       <c r="F621" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G621" s="57" t="n">
-        <v>354</v>
+        <v>552</v>
       </c>
     </row>
     <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22997,19 +23008,19 @@
         <v>0</v>
       </c>
       <c r="C622" s="56" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="D622" s="56" t="n">
-        <v>20</v>
-      </c>
-      <c r="E622" s="24" t="n">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="E622" s="58" t="n">
+        <v>15</v>
       </c>
       <c r="F622" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G622" s="57" t="n">
-        <v>396</v>
+        <v>720</v>
       </c>
     </row>
     <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23017,22 +23028,22 @@
         <v>303</v>
       </c>
       <c r="B623" s="56" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C623" s="56" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="D623" s="56" t="n">
-        <v>30</v>
-      </c>
-      <c r="E623" s="24" t="n">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="E623" s="58" t="n">
+        <v>5</v>
       </c>
       <c r="F623" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G623" s="57" t="n">
-        <v>438</v>
+        <v>204</v>
       </c>
     </row>
     <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23040,22 +23051,22 @@
         <v>303</v>
       </c>
       <c r="B624" s="56" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C624" s="56" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="D624" s="56" t="n">
-        <v>40</v>
-      </c>
-      <c r="E624" s="24" t="n">
-        <v>50</v>
+        <v>5</v>
+      </c>
+      <c r="E624" s="58" t="n">
+        <v>7</v>
       </c>
       <c r="F624" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G624" s="57" t="n">
-        <v>552</v>
+        <v>270</v>
       </c>
     </row>
     <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23063,22 +23074,22 @@
         <v>303</v>
       </c>
       <c r="B625" s="56" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C625" s="56" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="D625" s="56" t="n">
-        <v>50</v>
-      </c>
-      <c r="E625" s="24" t="n">
-        <v>60</v>
+        <v>7</v>
+      </c>
+      <c r="E625" s="58" t="n">
+        <v>10</v>
       </c>
       <c r="F625" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G625" s="57" t="n">
-        <v>660</v>
+        <v>366</v>
       </c>
     </row>
     <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23086,22 +23097,22 @@
         <v>303</v>
       </c>
       <c r="B626" s="56" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="C626" s="56" t="n">
-        <v>650</v>
+        <v>100</v>
       </c>
       <c r="D626" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E626" s="24" t="n">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="E626" s="58" t="n">
+        <v>15</v>
       </c>
       <c r="F626" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G626" s="57" t="n">
-        <v>228</v>
+        <v>480</v>
       </c>
     </row>
     <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23109,22 +23120,22 @@
         <v>303</v>
       </c>
       <c r="B627" s="56" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="C627" s="56" t="n">
-        <v>650</v>
+        <v>150</v>
       </c>
       <c r="D627" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E627" s="58" t="n">
         <v>5</v>
       </c>
-      <c r="E627" s="24" t="n">
-        <v>10</v>
-      </c>
       <c r="F627" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G627" s="57" t="n">
-        <v>246</v>
+        <v>126</v>
       </c>
     </row>
     <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23132,22 +23143,22 @@
         <v>303</v>
       </c>
       <c r="B628" s="56" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="C628" s="56" t="n">
-        <v>650</v>
+        <v>150</v>
       </c>
       <c r="D628" s="56" t="n">
-        <v>10</v>
-      </c>
-      <c r="E628" s="24" t="n">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="E628" s="58" t="n">
+        <v>7</v>
       </c>
       <c r="F628" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G628" s="57" t="n">
-        <v>288</v>
+        <v>162</v>
       </c>
     </row>
     <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23155,22 +23166,22 @@
         <v>303</v>
       </c>
       <c r="B629" s="56" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="C629" s="56" t="n">
-        <v>650</v>
+        <v>150</v>
       </c>
       <c r="D629" s="56" t="n">
-        <v>20</v>
-      </c>
-      <c r="E629" s="24" t="n">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="E629" s="58" t="n">
+        <v>10</v>
       </c>
       <c r="F629" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G629" s="57" t="n">
-        <v>348</v>
+        <v>216</v>
       </c>
     </row>
     <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23178,22 +23189,22 @@
         <v>303</v>
       </c>
       <c r="B630" s="56" t="n">
+        <v>100</v>
+      </c>
+      <c r="C630" s="56" t="n">
+        <v>150</v>
+      </c>
+      <c r="D630" s="56" t="n">
+        <v>10</v>
+      </c>
+      <c r="E630" s="58" t="n">
+        <v>15</v>
+      </c>
+      <c r="F630" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G630" s="57" t="n">
         <v>300</v>
-      </c>
-      <c r="C630" s="56" t="n">
-        <v>650</v>
-      </c>
-      <c r="D630" s="56" t="n">
-        <v>30</v>
-      </c>
-      <c r="E630" s="24" t="n">
-        <v>40</v>
-      </c>
-      <c r="F630" s="57" t="n">
-        <v>1</v>
-      </c>
-      <c r="G630" s="57" t="n">
-        <v>408</v>
       </c>
     </row>
     <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23201,22 +23212,22 @@
         <v>303</v>
       </c>
       <c r="B631" s="56" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C631" s="56" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="D631" s="56" t="n">
-        <v>40</v>
-      </c>
-      <c r="E631" s="24" t="n">
-        <v>50</v>
+        <v>0</v>
+      </c>
+      <c r="E631" s="58" t="n">
+        <v>5</v>
       </c>
       <c r="F631" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G631" s="57" t="n">
-        <v>486</v>
+        <v>84</v>
       </c>
     </row>
     <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23224,22 +23235,22 @@
         <v>303</v>
       </c>
       <c r="B632" s="56" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C632" s="56" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="D632" s="56" t="n">
-        <v>50</v>
-      </c>
-      <c r="E632" s="24" t="n">
-        <v>60</v>
+        <v>5</v>
+      </c>
+      <c r="E632" s="58" t="n">
+        <v>7</v>
       </c>
       <c r="F632" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G632" s="57" t="n">
-        <v>570</v>
+        <v>120</v>
       </c>
     </row>
     <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23247,16 +23258,16 @@
         <v>303</v>
       </c>
       <c r="B633" s="56" t="n">
-        <v>650</v>
+        <v>150</v>
       </c>
       <c r="C633" s="56" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="D633" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E633" s="24" t="n">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="E633" s="58" t="n">
+        <v>10</v>
       </c>
       <c r="F633" s="57" t="n">
         <v>1</v>
@@ -23270,22 +23281,22 @@
         <v>303</v>
       </c>
       <c r="B634" s="56" t="n">
-        <v>650</v>
+        <v>150</v>
       </c>
       <c r="C634" s="56" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="D634" s="56" t="n">
-        <v>5</v>
-      </c>
-      <c r="E634" s="24" t="n">
         <v>10</v>
       </c>
+      <c r="E634" s="58" t="n">
+        <v>15</v>
+      </c>
       <c r="F634" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G634" s="57" t="n">
-        <v>180</v>
+        <v>216</v>
       </c>
     </row>
     <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23293,22 +23304,22 @@
         <v>303</v>
       </c>
       <c r="B635" s="56" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="C635" s="56" t="n">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="D635" s="56" t="n">
-        <v>10</v>
-      </c>
-      <c r="E635" s="24" t="n">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="E635" s="58" t="n">
+        <v>5</v>
       </c>
       <c r="F635" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G635" s="57" t="n">
-        <v>228</v>
+        <v>60</v>
       </c>
     </row>
     <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23316,22 +23327,22 @@
         <v>303</v>
       </c>
       <c r="B636" s="56" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="C636" s="56" t="n">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="D636" s="56" t="n">
-        <v>20</v>
-      </c>
-      <c r="E636" s="24" t="n">
-        <v>30</v>
+        <v>5</v>
+      </c>
+      <c r="E636" s="58" t="n">
+        <v>7</v>
       </c>
       <c r="F636" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G636" s="57" t="n">
-        <v>300</v>
+        <v>78</v>
       </c>
     </row>
     <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23339,22 +23350,22 @@
         <v>303</v>
       </c>
       <c r="B637" s="56" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="C637" s="56" t="n">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="D637" s="56" t="n">
-        <v>30</v>
-      </c>
-      <c r="E637" s="24" t="n">
-        <v>40</v>
+        <v>7</v>
+      </c>
+      <c r="E637" s="58" t="n">
+        <v>10</v>
       </c>
       <c r="F637" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G637" s="57" t="n">
-        <v>372</v>
+        <v>108</v>
       </c>
     </row>
     <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23362,206 +23373,206 @@
         <v>303</v>
       </c>
       <c r="B638" s="56" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="C638" s="56" t="n">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="D638" s="56" t="n">
-        <v>40</v>
-      </c>
-      <c r="E638" s="24" t="n">
-        <v>50</v>
+        <v>10</v>
+      </c>
+      <c r="E638" s="58" t="n">
+        <v>100</v>
       </c>
       <c r="F638" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G638" s="57" t="n">
-        <v>444</v>
+        <v>144</v>
       </c>
     </row>
     <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="58" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B639" s="56" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="C639" s="56" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="D639" s="56" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E639" s="24" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="F639" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G639" s="57" t="n">
-        <v>516</v>
+        <v>312</v>
       </c>
     </row>
     <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="58" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B640" s="56" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C640" s="56" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="D640" s="56" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E640" s="24" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F640" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G640" s="57" t="n">
-        <v>126</v>
+        <v>324</v>
       </c>
     </row>
     <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="58" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B641" s="56" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C641" s="56" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="D641" s="56" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E641" s="24" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F641" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G641" s="57" t="n">
-        <v>132</v>
+        <v>354</v>
       </c>
     </row>
     <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="58" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B642" s="56" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C642" s="56" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="D642" s="56" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E642" s="24" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F642" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G642" s="57" t="n">
-        <v>168</v>
+        <v>396</v>
       </c>
     </row>
     <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="58" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B643" s="56" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C643" s="56" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="D643" s="56" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E643" s="24" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F643" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G643" s="57" t="n">
-        <v>198</v>
+        <v>438</v>
       </c>
     </row>
     <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="58" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B644" s="56" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C644" s="56" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="D644" s="56" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E644" s="24" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F644" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G644" s="57" t="n">
-        <v>240</v>
+        <v>552</v>
       </c>
     </row>
     <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="58" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B645" s="56" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C645" s="56" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="D645" s="56" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E645" s="24" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F645" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G645" s="57" t="n">
-        <v>276</v>
+        <v>660</v>
       </c>
     </row>
     <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="58" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B646" s="56" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="C646" s="56" t="n">
-        <v>1500</v>
+        <v>650</v>
       </c>
       <c r="D646" s="56" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E646" s="24" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="F646" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G646" s="57" t="n">
-        <v>336</v>
+        <v>228</v>
       </c>
     </row>
     <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23569,22 +23580,22 @@
         <v>304</v>
       </c>
       <c r="B647" s="56" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="C647" s="56" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="D647" s="56" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E647" s="24" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F647" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G647" s="57" t="n">
-        <v>312</v>
+        <v>246</v>
       </c>
     </row>
     <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23592,22 +23603,22 @@
         <v>304</v>
       </c>
       <c r="B648" s="56" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="C648" s="56" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="D648" s="56" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E648" s="24" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F648" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G648" s="57" t="n">
-        <v>324</v>
+        <v>288</v>
       </c>
     </row>
     <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23615,22 +23626,22 @@
         <v>304</v>
       </c>
       <c r="B649" s="56" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="C649" s="56" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="D649" s="56" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E649" s="24" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F649" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G649" s="57" t="n">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23638,22 +23649,22 @@
         <v>304</v>
       </c>
       <c r="B650" s="56" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="C650" s="56" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="D650" s="56" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E650" s="24" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F650" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G650" s="57" t="n">
-        <v>396</v>
+        <v>408</v>
       </c>
     </row>
     <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23661,22 +23672,22 @@
         <v>304</v>
       </c>
       <c r="B651" s="56" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="C651" s="56" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="D651" s="56" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E651" s="24" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F651" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G651" s="57" t="n">
-        <v>438</v>
+        <v>486</v>
       </c>
     </row>
     <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23684,22 +23695,22 @@
         <v>304</v>
       </c>
       <c r="B652" s="56" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="C652" s="56" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="D652" s="56" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E652" s="24" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F652" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G652" s="57" t="n">
-        <v>552</v>
+        <v>570</v>
       </c>
     </row>
     <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23707,22 +23718,22 @@
         <v>304</v>
       </c>
       <c r="B653" s="56" t="n">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="C653" s="56" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="D653" s="56" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E653" s="24" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="F653" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G653" s="57" t="n">
-        <v>660</v>
+        <v>156</v>
       </c>
     </row>
     <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23730,22 +23741,22 @@
         <v>304</v>
       </c>
       <c r="B654" s="56" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="C654" s="56" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="D654" s="56" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E654" s="24" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F654" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G654" s="57" t="n">
-        <v>228</v>
+        <v>180</v>
       </c>
     </row>
     <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23753,22 +23764,22 @@
         <v>304</v>
       </c>
       <c r="B655" s="56" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="C655" s="56" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="D655" s="56" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E655" s="24" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F655" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G655" s="57" t="n">
-        <v>246</v>
+        <v>228</v>
       </c>
     </row>
     <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23776,22 +23787,22 @@
         <v>304</v>
       </c>
       <c r="B656" s="56" t="n">
+        <v>650</v>
+      </c>
+      <c r="C656" s="56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D656" s="56" t="n">
+        <v>20</v>
+      </c>
+      <c r="E656" s="24" t="n">
+        <v>30</v>
+      </c>
+      <c r="F656" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G656" s="57" t="n">
         <v>300</v>
-      </c>
-      <c r="C656" s="56" t="n">
-        <v>650</v>
-      </c>
-      <c r="D656" s="56" t="n">
-        <v>10</v>
-      </c>
-      <c r="E656" s="24" t="n">
-        <v>20</v>
-      </c>
-      <c r="F656" s="57" t="n">
-        <v>1</v>
-      </c>
-      <c r="G656" s="57" t="n">
-        <v>288</v>
       </c>
     </row>
     <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23799,22 +23810,22 @@
         <v>304</v>
       </c>
       <c r="B657" s="56" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="C657" s="56" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="D657" s="56" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E657" s="24" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F657" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G657" s="57" t="n">
-        <v>348</v>
+        <v>372</v>
       </c>
     </row>
     <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23822,22 +23833,22 @@
         <v>304</v>
       </c>
       <c r="B658" s="56" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="C658" s="56" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="D658" s="56" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E658" s="24" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F658" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G658" s="57" t="n">
-        <v>408</v>
+        <v>444</v>
       </c>
     </row>
     <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23845,22 +23856,22 @@
         <v>304</v>
       </c>
       <c r="B659" s="56" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="C659" s="56" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="D659" s="56" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E659" s="24" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F659" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G659" s="57" t="n">
-        <v>486</v>
+        <v>516</v>
       </c>
     </row>
     <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23868,22 +23879,22 @@
         <v>304</v>
       </c>
       <c r="B660" s="56" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="C660" s="56" t="n">
-        <v>650</v>
+        <v>1500</v>
       </c>
       <c r="D660" s="56" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E660" s="24" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="F660" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G660" s="57" t="n">
-        <v>570</v>
+        <v>126</v>
       </c>
     </row>
     <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23891,22 +23902,22 @@
         <v>304</v>
       </c>
       <c r="B661" s="56" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="C661" s="56" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="D661" s="56" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E661" s="24" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F661" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G661" s="57" t="n">
-        <v>156</v>
+        <v>132</v>
       </c>
     </row>
     <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23914,22 +23925,22 @@
         <v>304</v>
       </c>
       <c r="B662" s="56" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="C662" s="56" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="D662" s="56" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E662" s="24" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F662" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G662" s="57" t="n">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23937,22 +23948,22 @@
         <v>304</v>
       </c>
       <c r="B663" s="56" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="C663" s="56" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="D663" s="56" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E663" s="24" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F663" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G663" s="57" t="n">
-        <v>228</v>
+        <v>198</v>
       </c>
     </row>
     <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23960,22 +23971,22 @@
         <v>304</v>
       </c>
       <c r="B664" s="56" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="C664" s="56" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="D664" s="56" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E664" s="24" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F664" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G664" s="57" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
     </row>
     <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23983,22 +23994,22 @@
         <v>304</v>
       </c>
       <c r="B665" s="56" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="C665" s="56" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="D665" s="56" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E665" s="24" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F665" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G665" s="57" t="n">
-        <v>372</v>
+        <v>276</v>
       </c>
     </row>
     <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24006,206 +24017,206 @@
         <v>304</v>
       </c>
       <c r="B666" s="56" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="C666" s="56" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="D666" s="56" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E666" s="24" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F666" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G666" s="57" t="n">
-        <v>444</v>
+        <v>336</v>
       </c>
     </row>
     <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="58" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B667" s="56" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="C667" s="56" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="D667" s="56" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E667" s="24" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="F667" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G667" s="57" t="n">
-        <v>516</v>
+        <v>312</v>
       </c>
     </row>
     <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="58" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B668" s="56" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C668" s="56" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="D668" s="56" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E668" s="24" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F668" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G668" s="57" t="n">
-        <v>126</v>
+        <v>324</v>
       </c>
     </row>
     <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="58" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B669" s="56" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C669" s="56" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="D669" s="56" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E669" s="24" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F669" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G669" s="57" t="n">
-        <v>132</v>
+        <v>354</v>
       </c>
     </row>
     <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="58" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B670" s="56" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C670" s="56" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="D670" s="56" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E670" s="24" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F670" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G670" s="57" t="n">
-        <v>168</v>
+        <v>396</v>
       </c>
     </row>
     <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="58" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B671" s="56" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C671" s="56" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="D671" s="56" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E671" s="24" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F671" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G671" s="57" t="n">
-        <v>198</v>
+        <v>438</v>
       </c>
     </row>
     <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="58" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B672" s="56" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C672" s="56" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="D672" s="56" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E672" s="24" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F672" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G672" s="57" t="n">
-        <v>240</v>
+        <v>552</v>
       </c>
     </row>
     <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="58" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B673" s="56" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C673" s="56" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="D673" s="56" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E673" s="24" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F673" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G673" s="57" t="n">
-        <v>276</v>
+        <v>660</v>
       </c>
     </row>
     <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="58" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B674" s="56" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="C674" s="56" t="n">
-        <v>1500</v>
+        <v>650</v>
       </c>
       <c r="D674" s="56" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E674" s="24" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="F674" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G674" s="57" t="n">
-        <v>336</v>
+        <v>228</v>
       </c>
     </row>
     <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24213,22 +24224,22 @@
         <v>305</v>
       </c>
       <c r="B675" s="56" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="C675" s="56" t="n">
-        <v>25</v>
+        <v>650</v>
       </c>
       <c r="D675" s="56" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E675" s="24" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F675" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G675" s="57" t="n">
-        <v>720</v>
+        <v>246</v>
       </c>
     </row>
     <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24236,22 +24247,22 @@
         <v>305</v>
       </c>
       <c r="B676" s="56" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="C676" s="56" t="n">
-        <v>25</v>
+        <v>650</v>
       </c>
       <c r="D676" s="56" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E676" s="24" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F676" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G676" s="57" t="n">
-        <v>720</v>
+        <v>288</v>
       </c>
     </row>
     <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24259,22 +24270,22 @@
         <v>305</v>
       </c>
       <c r="B677" s="56" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="C677" s="56" t="n">
-        <v>25</v>
+        <v>650</v>
       </c>
       <c r="D677" s="56" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E677" s="24" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F677" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G677" s="57" t="n">
-        <v>720</v>
+        <v>348</v>
       </c>
     </row>
     <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24282,22 +24293,22 @@
         <v>305</v>
       </c>
       <c r="B678" s="56" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="C678" s="56" t="n">
-        <v>25</v>
+        <v>650</v>
       </c>
       <c r="D678" s="56" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E678" s="24" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F678" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G678" s="57" t="n">
-        <v>720</v>
+        <v>408</v>
       </c>
     </row>
     <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24305,22 +24316,22 @@
         <v>305</v>
       </c>
       <c r="B679" s="56" t="n">
-        <v>25</v>
+        <v>300</v>
       </c>
       <c r="C679" s="56" t="n">
+        <v>650</v>
+      </c>
+      <c r="D679" s="56" t="n">
+        <v>40</v>
+      </c>
+      <c r="E679" s="24" t="n">
         <v>50</v>
       </c>
-      <c r="D679" s="56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E679" s="24" t="n">
-        <v>7</v>
-      </c>
       <c r="F679" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G679" s="57" t="n">
-        <v>546</v>
+        <v>486</v>
       </c>
     </row>
     <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24328,22 +24339,22 @@
         <v>305</v>
       </c>
       <c r="B680" s="56" t="n">
-        <v>25</v>
+        <v>300</v>
       </c>
       <c r="C680" s="56" t="n">
+        <v>650</v>
+      </c>
+      <c r="D680" s="56" t="n">
         <v>50</v>
       </c>
-      <c r="D680" s="56" t="n">
-        <v>7</v>
-      </c>
       <c r="E680" s="24" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F680" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G680" s="57" t="n">
-        <v>840</v>
+        <v>570</v>
       </c>
     </row>
     <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24351,22 +24362,22 @@
         <v>305</v>
       </c>
       <c r="B681" s="56" t="n">
-        <v>25</v>
+        <v>650</v>
       </c>
       <c r="C681" s="56" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="D681" s="56" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E681" s="24" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F681" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G681" s="57" t="n">
-        <v>840</v>
+        <v>156</v>
       </c>
     </row>
     <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24374,22 +24385,22 @@
         <v>305</v>
       </c>
       <c r="B682" s="56" t="n">
-        <v>25</v>
+        <v>650</v>
       </c>
       <c r="C682" s="56" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="D682" s="56" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E682" s="24" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F682" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G682" s="57" t="n">
-        <v>840</v>
+        <v>180</v>
       </c>
     </row>
     <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24397,22 +24408,22 @@
         <v>305</v>
       </c>
       <c r="B683" s="56" t="n">
-        <v>50</v>
+        <v>650</v>
       </c>
       <c r="C683" s="56" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D683" s="56" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E683" s="24" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F683" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G683" s="57" t="n">
-        <v>366</v>
+        <v>228</v>
       </c>
     </row>
     <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24420,22 +24431,22 @@
         <v>305</v>
       </c>
       <c r="B684" s="56" t="n">
-        <v>50</v>
+        <v>650</v>
       </c>
       <c r="C684" s="56" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D684" s="56" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E684" s="24" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F684" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G684" s="57" t="n">
-        <v>504</v>
+        <v>300</v>
       </c>
     </row>
     <row r="685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24443,22 +24454,22 @@
         <v>305</v>
       </c>
       <c r="B685" s="56" t="n">
-        <v>50</v>
+        <v>650</v>
       </c>
       <c r="C685" s="56" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D685" s="56" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E685" s="24" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F685" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G685" s="57" t="n">
-        <v>750</v>
+        <v>372</v>
       </c>
     </row>
     <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24466,22 +24477,22 @@
         <v>305</v>
       </c>
       <c r="B686" s="56" t="n">
+        <v>650</v>
+      </c>
+      <c r="C686" s="56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D686" s="56" t="n">
+        <v>40</v>
+      </c>
+      <c r="E686" s="24" t="n">
         <v>50</v>
       </c>
-      <c r="C686" s="56" t="n">
-        <v>100</v>
-      </c>
-      <c r="D686" s="56" t="n">
-        <v>20</v>
-      </c>
-      <c r="E686" s="24" t="n">
-        <v>30</v>
-      </c>
       <c r="F686" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G686" s="57" t="n">
-        <v>750</v>
+        <v>444</v>
       </c>
     </row>
     <row r="687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24489,22 +24500,22 @@
         <v>305</v>
       </c>
       <c r="B687" s="56" t="n">
-        <v>100</v>
+        <v>650</v>
       </c>
       <c r="C687" s="56" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="D687" s="56" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E687" s="24" t="n">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="F687" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G687" s="57" t="n">
-        <v>258</v>
+        <v>516</v>
       </c>
     </row>
     <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24512,22 +24523,22 @@
         <v>305</v>
       </c>
       <c r="B688" s="56" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C688" s="56" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="D688" s="56" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E688" s="24" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F688" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G688" s="57" t="n">
-        <v>306</v>
+        <v>126</v>
       </c>
     </row>
     <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24535,22 +24546,22 @@
         <v>305</v>
       </c>
       <c r="B689" s="56" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C689" s="56" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="D689" s="56" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E689" s="24" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F689" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G689" s="57" t="n">
-        <v>396</v>
+        <v>132</v>
       </c>
     </row>
     <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24558,114 +24569,114 @@
         <v>305</v>
       </c>
       <c r="B690" s="56" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C690" s="56" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="D690" s="56" t="n">
+        <v>10</v>
+      </c>
+      <c r="E690" s="24" t="n">
         <v>20</v>
       </c>
-      <c r="E690" s="24" t="n">
-        <v>30</v>
-      </c>
       <c r="F690" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G690" s="57" t="n">
-        <v>486</v>
+        <v>168</v>
       </c>
     </row>
     <row r="691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="58" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B691" s="56" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="C691" s="56" t="n">
-        <v>25</v>
+        <v>1500</v>
       </c>
       <c r="D691" s="56" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E691" s="24" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="F691" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G691" s="57" t="n">
-        <v>720</v>
+        <v>198</v>
       </c>
     </row>
     <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="58" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B692" s="56" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="C692" s="56" t="n">
-        <v>25</v>
+        <v>1500</v>
       </c>
       <c r="D692" s="56" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E692" s="24" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F692" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G692" s="57" t="n">
-        <v>720</v>
+        <v>240</v>
       </c>
     </row>
     <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="58" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B693" s="56" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="C693" s="56" t="n">
-        <v>25</v>
+        <v>1500</v>
       </c>
       <c r="D693" s="56" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E693" s="24" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F693" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G693" s="57" t="n">
-        <v>720</v>
+        <v>276</v>
       </c>
     </row>
     <row r="694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="58" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B694" s="56" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="C694" s="56" t="n">
-        <v>25</v>
+        <v>1500</v>
       </c>
       <c r="D694" s="56" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E694" s="24" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F694" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G694" s="57" t="n">
-        <v>720</v>
+        <v>336</v>
       </c>
     </row>
     <row r="695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24673,10 +24684,10 @@
         <v>306</v>
       </c>
       <c r="B695" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C695" s="56" t="n">
         <v>25</v>
-      </c>
-      <c r="C695" s="56" t="n">
-        <v>50</v>
       </c>
       <c r="D695" s="56" t="n">
         <v>0</v>
@@ -24688,7 +24699,7 @@
         <v>1</v>
       </c>
       <c r="G695" s="57" t="n">
-        <v>546</v>
+        <v>720</v>
       </c>
     </row>
     <row r="696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24696,10 +24707,10 @@
         <v>306</v>
       </c>
       <c r="B696" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C696" s="56" t="n">
         <v>25</v>
-      </c>
-      <c r="C696" s="56" t="n">
-        <v>50</v>
       </c>
       <c r="D696" s="56" t="n">
         <v>7</v>
@@ -24711,7 +24722,7 @@
         <v>1</v>
       </c>
       <c r="G696" s="57" t="n">
-        <v>840</v>
+        <v>720</v>
       </c>
     </row>
     <row r="697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24719,10 +24730,10 @@
         <v>306</v>
       </c>
       <c r="B697" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C697" s="56" t="n">
         <v>25</v>
-      </c>
-      <c r="C697" s="56" t="n">
-        <v>50</v>
       </c>
       <c r="D697" s="56" t="n">
         <v>15</v>
@@ -24734,7 +24745,7 @@
         <v>1</v>
       </c>
       <c r="G697" s="57" t="n">
-        <v>840</v>
+        <v>720</v>
       </c>
     </row>
     <row r="698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24742,10 +24753,10 @@
         <v>306</v>
       </c>
       <c r="B698" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C698" s="56" t="n">
         <v>25</v>
-      </c>
-      <c r="C698" s="56" t="n">
-        <v>50</v>
       </c>
       <c r="D698" s="56" t="n">
         <v>20</v>
@@ -24757,7 +24768,7 @@
         <v>1</v>
       </c>
       <c r="G698" s="57" t="n">
-        <v>840</v>
+        <v>720</v>
       </c>
     </row>
     <row r="699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24765,10 +24776,10 @@
         <v>306</v>
       </c>
       <c r="B699" s="56" t="n">
+        <v>25</v>
+      </c>
+      <c r="C699" s="56" t="n">
         <v>50</v>
-      </c>
-      <c r="C699" s="56" t="n">
-        <v>100</v>
       </c>
       <c r="D699" s="56" t="n">
         <v>0</v>
@@ -24780,7 +24791,7 @@
         <v>1</v>
       </c>
       <c r="G699" s="57" t="n">
-        <v>366</v>
+        <v>546</v>
       </c>
     </row>
     <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24788,10 +24799,10 @@
         <v>306</v>
       </c>
       <c r="B700" s="56" t="n">
+        <v>25</v>
+      </c>
+      <c r="C700" s="56" t="n">
         <v>50</v>
-      </c>
-      <c r="C700" s="56" t="n">
-        <v>100</v>
       </c>
       <c r="D700" s="56" t="n">
         <v>7</v>
@@ -24803,7 +24814,7 @@
         <v>1</v>
       </c>
       <c r="G700" s="57" t="n">
-        <v>504</v>
+        <v>840</v>
       </c>
     </row>
     <row r="701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24811,10 +24822,10 @@
         <v>306</v>
       </c>
       <c r="B701" s="56" t="n">
+        <v>25</v>
+      </c>
+      <c r="C701" s="56" t="n">
         <v>50</v>
-      </c>
-      <c r="C701" s="56" t="n">
-        <v>100</v>
       </c>
       <c r="D701" s="56" t="n">
         <v>15</v>
@@ -24826,7 +24837,7 @@
         <v>1</v>
       </c>
       <c r="G701" s="57" t="n">
-        <v>750</v>
+        <v>840</v>
       </c>
     </row>
     <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24834,10 +24845,10 @@
         <v>306</v>
       </c>
       <c r="B702" s="56" t="n">
+        <v>25</v>
+      </c>
+      <c r="C702" s="56" t="n">
         <v>50</v>
-      </c>
-      <c r="C702" s="56" t="n">
-        <v>100</v>
       </c>
       <c r="D702" s="56" t="n">
         <v>20</v>
@@ -24849,7 +24860,7 @@
         <v>1</v>
       </c>
       <c r="G702" s="57" t="n">
-        <v>750</v>
+        <v>840</v>
       </c>
     </row>
     <row r="703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24857,10 +24868,10 @@
         <v>306</v>
       </c>
       <c r="B703" s="56" t="n">
+        <v>50</v>
+      </c>
+      <c r="C703" s="56" t="n">
         <v>100</v>
-      </c>
-      <c r="C703" s="56" t="n">
-        <v>300</v>
       </c>
       <c r="D703" s="56" t="n">
         <v>0</v>
@@ -24872,7 +24883,7 @@
         <v>1</v>
       </c>
       <c r="G703" s="57" t="n">
-        <v>258</v>
+        <v>366</v>
       </c>
     </row>
     <row r="704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24880,10 +24891,10 @@
         <v>306</v>
       </c>
       <c r="B704" s="56" t="n">
+        <v>50</v>
+      </c>
+      <c r="C704" s="56" t="n">
         <v>100</v>
-      </c>
-      <c r="C704" s="56" t="n">
-        <v>300</v>
       </c>
       <c r="D704" s="56" t="n">
         <v>7</v>
@@ -24895,7 +24906,7 @@
         <v>1</v>
       </c>
       <c r="G704" s="57" t="n">
-        <v>306</v>
+        <v>504</v>
       </c>
     </row>
     <row r="705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24903,10 +24914,10 @@
         <v>306</v>
       </c>
       <c r="B705" s="56" t="n">
+        <v>50</v>
+      </c>
+      <c r="C705" s="56" t="n">
         <v>100</v>
-      </c>
-      <c r="C705" s="56" t="n">
-        <v>300</v>
       </c>
       <c r="D705" s="56" t="n">
         <v>15</v>
@@ -24918,7 +24929,7 @@
         <v>1</v>
       </c>
       <c r="G705" s="57" t="n">
-        <v>396</v>
+        <v>750</v>
       </c>
     </row>
     <row r="706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24926,10 +24937,10 @@
         <v>306</v>
       </c>
       <c r="B706" s="56" t="n">
+        <v>50</v>
+      </c>
+      <c r="C706" s="56" t="n">
         <v>100</v>
-      </c>
-      <c r="C706" s="56" t="n">
-        <v>300</v>
       </c>
       <c r="D706" s="56" t="n">
         <v>20</v>
@@ -24941,18 +24952,18 @@
         <v>1</v>
       </c>
       <c r="G706" s="57" t="n">
-        <v>486</v>
+        <v>750</v>
       </c>
     </row>
     <row r="707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="58" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B707" s="56" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C707" s="56" t="n">
-        <v>25</v>
+        <v>300</v>
       </c>
       <c r="D707" s="56" t="n">
         <v>0</v>
@@ -24964,18 +24975,18 @@
         <v>1</v>
       </c>
       <c r="G707" s="57" t="n">
-        <v>720</v>
+        <v>258</v>
       </c>
     </row>
     <row r="708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="58" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B708" s="56" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C708" s="56" t="n">
-        <v>25</v>
+        <v>300</v>
       </c>
       <c r="D708" s="56" t="n">
         <v>7</v>
@@ -24987,18 +24998,18 @@
         <v>1</v>
       </c>
       <c r="G708" s="57" t="n">
-        <v>720</v>
+        <v>306</v>
       </c>
     </row>
     <row r="709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="58" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B709" s="56" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C709" s="56" t="n">
-        <v>25</v>
+        <v>300</v>
       </c>
       <c r="D709" s="56" t="n">
         <v>15</v>
@@ -25010,18 +25021,18 @@
         <v>1</v>
       </c>
       <c r="G709" s="57" t="n">
-        <v>720</v>
+        <v>396</v>
       </c>
     </row>
     <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="58" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B710" s="56" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C710" s="56" t="n">
-        <v>25</v>
+        <v>300</v>
       </c>
       <c r="D710" s="56" t="n">
         <v>20</v>
@@ -25033,7 +25044,7 @@
         <v>1</v>
       </c>
       <c r="G710" s="57" t="n">
-        <v>720</v>
+        <v>486</v>
       </c>
     </row>
     <row r="711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25041,10 +25052,10 @@
         <v>307</v>
       </c>
       <c r="B711" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C711" s="56" t="n">
         <v>25</v>
-      </c>
-      <c r="C711" s="56" t="n">
-        <v>50</v>
       </c>
       <c r="D711" s="56" t="n">
         <v>0</v>
@@ -25056,7 +25067,7 @@
         <v>1</v>
       </c>
       <c r="G711" s="57" t="n">
-        <v>546</v>
+        <v>720</v>
       </c>
     </row>
     <row r="712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25064,10 +25075,10 @@
         <v>307</v>
       </c>
       <c r="B712" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C712" s="56" t="n">
         <v>25</v>
-      </c>
-      <c r="C712" s="56" t="n">
-        <v>50</v>
       </c>
       <c r="D712" s="56" t="n">
         <v>7</v>
@@ -25079,7 +25090,7 @@
         <v>1</v>
       </c>
       <c r="G712" s="57" t="n">
-        <v>840</v>
+        <v>720</v>
       </c>
     </row>
     <row r="713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25087,10 +25098,10 @@
         <v>307</v>
       </c>
       <c r="B713" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C713" s="56" t="n">
         <v>25</v>
-      </c>
-      <c r="C713" s="56" t="n">
-        <v>50</v>
       </c>
       <c r="D713" s="56" t="n">
         <v>15</v>
@@ -25102,7 +25113,7 @@
         <v>1</v>
       </c>
       <c r="G713" s="57" t="n">
-        <v>840</v>
+        <v>720</v>
       </c>
     </row>
     <row r="714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25110,10 +25121,10 @@
         <v>307</v>
       </c>
       <c r="B714" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C714" s="56" t="n">
         <v>25</v>
-      </c>
-      <c r="C714" s="56" t="n">
-        <v>50</v>
       </c>
       <c r="D714" s="56" t="n">
         <v>20</v>
@@ -25125,7 +25136,7 @@
         <v>1</v>
       </c>
       <c r="G714" s="57" t="n">
-        <v>840</v>
+        <v>720</v>
       </c>
     </row>
     <row r="715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25133,10 +25144,10 @@
         <v>307</v>
       </c>
       <c r="B715" s="56" t="n">
+        <v>25</v>
+      </c>
+      <c r="C715" s="56" t="n">
         <v>50</v>
-      </c>
-      <c r="C715" s="56" t="n">
-        <v>100</v>
       </c>
       <c r="D715" s="56" t="n">
         <v>0</v>
@@ -25148,7 +25159,7 @@
         <v>1</v>
       </c>
       <c r="G715" s="57" t="n">
-        <v>366</v>
+        <v>546</v>
       </c>
     </row>
     <row r="716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25156,10 +25167,10 @@
         <v>307</v>
       </c>
       <c r="B716" s="56" t="n">
+        <v>25</v>
+      </c>
+      <c r="C716" s="56" t="n">
         <v>50</v>
-      </c>
-      <c r="C716" s="56" t="n">
-        <v>100</v>
       </c>
       <c r="D716" s="56" t="n">
         <v>7</v>
@@ -25171,7 +25182,7 @@
         <v>1</v>
       </c>
       <c r="G716" s="57" t="n">
-        <v>504</v>
+        <v>840</v>
       </c>
     </row>
     <row r="717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25179,10 +25190,10 @@
         <v>307</v>
       </c>
       <c r="B717" s="56" t="n">
+        <v>25</v>
+      </c>
+      <c r="C717" s="56" t="n">
         <v>50</v>
-      </c>
-      <c r="C717" s="56" t="n">
-        <v>100</v>
       </c>
       <c r="D717" s="56" t="n">
         <v>15</v>
@@ -25194,7 +25205,7 @@
         <v>1</v>
       </c>
       <c r="G717" s="57" t="n">
-        <v>750</v>
+        <v>840</v>
       </c>
     </row>
     <row r="718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25202,10 +25213,10 @@
         <v>307</v>
       </c>
       <c r="B718" s="56" t="n">
+        <v>25</v>
+      </c>
+      <c r="C718" s="56" t="n">
         <v>50</v>
-      </c>
-      <c r="C718" s="56" t="n">
-        <v>100</v>
       </c>
       <c r="D718" s="56" t="n">
         <v>20</v>
@@ -25217,7 +25228,7 @@
         <v>1</v>
       </c>
       <c r="G718" s="57" t="n">
-        <v>750</v>
+        <v>840</v>
       </c>
     </row>
     <row r="719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25225,10 +25236,10 @@
         <v>307</v>
       </c>
       <c r="B719" s="56" t="n">
+        <v>50</v>
+      </c>
+      <c r="C719" s="56" t="n">
         <v>100</v>
-      </c>
-      <c r="C719" s="56" t="n">
-        <v>300</v>
       </c>
       <c r="D719" s="56" t="n">
         <v>0</v>
@@ -25240,7 +25251,7 @@
         <v>1</v>
       </c>
       <c r="G719" s="57" t="n">
-        <v>258</v>
+        <v>366</v>
       </c>
     </row>
     <row r="720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25248,10 +25259,10 @@
         <v>307</v>
       </c>
       <c r="B720" s="56" t="n">
+        <v>50</v>
+      </c>
+      <c r="C720" s="56" t="n">
         <v>100</v>
-      </c>
-      <c r="C720" s="56" t="n">
-        <v>300</v>
       </c>
       <c r="D720" s="56" t="n">
         <v>7</v>
@@ -25263,7 +25274,7 @@
         <v>1</v>
       </c>
       <c r="G720" s="57" t="n">
-        <v>306</v>
+        <v>504</v>
       </c>
     </row>
     <row r="721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25271,10 +25282,10 @@
         <v>307</v>
       </c>
       <c r="B721" s="56" t="n">
+        <v>50</v>
+      </c>
+      <c r="C721" s="56" t="n">
         <v>100</v>
-      </c>
-      <c r="C721" s="56" t="n">
-        <v>300</v>
       </c>
       <c r="D721" s="56" t="n">
         <v>15</v>
@@ -25286,7 +25297,7 @@
         <v>1</v>
       </c>
       <c r="G721" s="57" t="n">
-        <v>396</v>
+        <v>750</v>
       </c>
     </row>
     <row r="722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25294,10 +25305,10 @@
         <v>307</v>
       </c>
       <c r="B722" s="56" t="n">
+        <v>50</v>
+      </c>
+      <c r="C722" s="56" t="n">
         <v>100</v>
-      </c>
-      <c r="C722" s="56" t="n">
-        <v>300</v>
       </c>
       <c r="D722" s="56" t="n">
         <v>20</v>
@@ -25309,47 +25320,44 @@
         <v>1</v>
       </c>
       <c r="G722" s="57" t="n">
-        <v>486</v>
+        <v>750</v>
       </c>
     </row>
     <row r="723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="58" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B723" s="56" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C723" s="56" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="D723" s="56" t="n">
         <v>0</v>
       </c>
       <c r="E723" s="24" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F723" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G723" s="57" t="n">
-        <v>468</v>
-      </c>
-      <c r="H723" s="0" t="s">
-        <v>309</v>
+        <v>258</v>
       </c>
     </row>
     <row r="724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="58" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B724" s="56" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C724" s="56" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="D724" s="56" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E724" s="24" t="n">
         <v>15</v>
@@ -25358,62 +25366,53 @@
         <v>1</v>
       </c>
       <c r="G724" s="57" t="n">
-        <v>546</v>
-      </c>
-      <c r="H724" s="0" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="58" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B725" s="56" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C725" s="56" t="n">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="D725" s="56" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E725" s="24" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F725" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G725" s="57" t="n">
-        <v>414</v>
-      </c>
-      <c r="H725" s="0" t="s">
-        <v>309</v>
+        <v>396</v>
       </c>
     </row>
     <row r="726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="58" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B726" s="56" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C726" s="56" t="n">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="D726" s="56" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E726" s="24" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F726" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G726" s="57" t="n">
         <v>486</v>
-      </c>
-      <c r="H726" s="0" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25421,25 +25420,22 @@
         <v>308</v>
       </c>
       <c r="B727" s="56" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C727" s="56" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="D727" s="56" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E727" s="24" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F727" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G727" s="57" t="n">
-        <v>588</v>
-      </c>
-      <c r="H727" s="0" t="s">
-        <v>309</v>
+        <v>720</v>
       </c>
     </row>
     <row r="728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25447,13 +25443,13 @@
         <v>308</v>
       </c>
       <c r="B728" s="56" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="C728" s="56" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D728" s="56" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E728" s="24" t="n">
         <v>15</v>
@@ -25462,10 +25458,7 @@
         <v>1</v>
       </c>
       <c r="G728" s="57" t="n">
-        <v>402</v>
-      </c>
-      <c r="H728" s="0" t="s">
-        <v>309</v>
+        <v>720</v>
       </c>
     </row>
     <row r="729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25473,10 +25466,10 @@
         <v>308</v>
       </c>
       <c r="B729" s="56" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="C729" s="56" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D729" s="56" t="n">
         <v>15</v>
@@ -25488,10 +25481,7 @@
         <v>1</v>
       </c>
       <c r="G729" s="57" t="n">
-        <v>480</v>
-      </c>
-      <c r="H729" s="0" t="s">
-        <v>309</v>
+        <v>720</v>
       </c>
     </row>
     <row r="730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25499,10 +25489,10 @@
         <v>308</v>
       </c>
       <c r="B730" s="56" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="C730" s="56" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D730" s="56" t="n">
         <v>20</v>
@@ -25514,10 +25504,7 @@
         <v>1</v>
       </c>
       <c r="G730" s="57" t="n">
-        <v>588</v>
-      </c>
-      <c r="H730" s="0" t="s">
-        <v>309</v>
+        <v>720</v>
       </c>
     </row>
     <row r="731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25525,25 +25512,22 @@
         <v>308</v>
       </c>
       <c r="B731" s="56" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="C731" s="56" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D731" s="56" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E731" s="24" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="F731" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G731" s="57" t="n">
-        <v>750</v>
-      </c>
-      <c r="H731" s="0" t="s">
-        <v>309</v>
+        <v>546</v>
       </c>
     </row>
     <row r="732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25551,13 +25535,13 @@
         <v>308</v>
       </c>
       <c r="B732" s="56" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="C732" s="56" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="D732" s="56" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E732" s="24" t="n">
         <v>15</v>
@@ -25566,10 +25550,7 @@
         <v>1</v>
       </c>
       <c r="G732" s="57" t="n">
-        <v>342</v>
-      </c>
-      <c r="H732" s="0" t="s">
-        <v>309</v>
+        <v>840</v>
       </c>
     </row>
     <row r="733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25577,10 +25558,10 @@
         <v>308</v>
       </c>
       <c r="B733" s="56" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="C733" s="56" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="D733" s="56" t="n">
         <v>15</v>
@@ -25592,10 +25573,7 @@
         <v>1</v>
       </c>
       <c r="G733" s="57" t="n">
-        <v>396</v>
-      </c>
-      <c r="H733" s="0" t="s">
-        <v>309</v>
+        <v>840</v>
       </c>
     </row>
     <row r="734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25603,10 +25581,10 @@
         <v>308</v>
       </c>
       <c r="B734" s="56" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="C734" s="56" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="D734" s="56" t="n">
         <v>20</v>
@@ -25618,10 +25596,7 @@
         <v>1</v>
       </c>
       <c r="G734" s="57" t="n">
-        <v>468</v>
-      </c>
-      <c r="H734" s="0" t="s">
-        <v>309</v>
+        <v>840</v>
       </c>
     </row>
     <row r="735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25629,25 +25604,22 @@
         <v>308</v>
       </c>
       <c r="B735" s="56" t="n">
+        <v>50</v>
+      </c>
+      <c r="C735" s="56" t="n">
         <v>100</v>
       </c>
-      <c r="C735" s="56" t="n">
-        <v>150</v>
-      </c>
       <c r="D735" s="56" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E735" s="24" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="F735" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G735" s="57" t="n">
-        <v>588</v>
-      </c>
-      <c r="H735" s="0" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
     </row>
     <row r="736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25655,25 +25627,22 @@
         <v>308</v>
       </c>
       <c r="B736" s="56" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="C736" s="56" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D736" s="56" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="E736" s="24" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F736" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G736" s="57" t="n">
-        <v>750</v>
-      </c>
-      <c r="H736" s="0" t="s">
-        <v>309</v>
+        <v>504</v>
       </c>
     </row>
     <row r="737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25681,13 +25650,13 @@
         <v>308</v>
       </c>
       <c r="B737" s="56" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="C737" s="56" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D737" s="56" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E737" s="24" t="n">
         <v>20</v>
@@ -25696,10 +25665,7 @@
         <v>1</v>
       </c>
       <c r="G737" s="57" t="n">
-        <v>342</v>
-      </c>
-      <c r="H737" s="0" t="s">
-        <v>309</v>
+        <v>750</v>
       </c>
     </row>
     <row r="738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25707,10 +25673,10 @@
         <v>308</v>
       </c>
       <c r="B738" s="56" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="C738" s="56" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D738" s="56" t="n">
         <v>20</v>
@@ -25722,10 +25688,7 @@
         <v>1</v>
       </c>
       <c r="G738" s="57" t="n">
-        <v>390</v>
-      </c>
-      <c r="H738" s="0" t="s">
-        <v>309</v>
+        <v>750</v>
       </c>
     </row>
     <row r="739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25733,25 +25696,22 @@
         <v>308</v>
       </c>
       <c r="B739" s="56" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="C739" s="56" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D739" s="56" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E739" s="24" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="F739" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G739" s="57" t="n">
-        <v>468</v>
-      </c>
-      <c r="H739" s="0" t="s">
-        <v>309</v>
+        <v>258</v>
       </c>
     </row>
     <row r="740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25759,25 +25719,22 @@
         <v>308</v>
       </c>
       <c r="B740" s="56" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="C740" s="56" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D740" s="56" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="E740" s="24" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F740" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G740" s="57" t="n">
-        <v>588</v>
-      </c>
-      <c r="H740" s="0" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25785,25 +25742,22 @@
         <v>308</v>
       </c>
       <c r="B741" s="56" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C741" s="56" t="n">
         <v>300</v>
       </c>
       <c r="D741" s="56" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E741" s="24" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F741" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G741" s="57" t="n">
-        <v>330</v>
-      </c>
-      <c r="H741" s="0" t="s">
-        <v>309</v>
+        <v>396</v>
       </c>
     </row>
     <row r="742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25811,42 +25765,39 @@
         <v>308</v>
       </c>
       <c r="B742" s="56" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C742" s="56" t="n">
         <v>300</v>
       </c>
       <c r="D742" s="56" t="n">
+        <v>20</v>
+      </c>
+      <c r="E742" s="24" t="n">
         <v>30</v>
       </c>
-      <c r="E742" s="24" t="n">
-        <v>40</v>
-      </c>
       <c r="F742" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G742" s="57" t="n">
-        <v>384</v>
-      </c>
-      <c r="H742" s="0" t="s">
-        <v>309</v>
+        <v>486</v>
       </c>
     </row>
     <row r="743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B743" s="56" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="C743" s="56" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="D743" s="56" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E743" s="24" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F743" s="57" t="n">
         <v>1</v>
@@ -25855,108 +25806,108 @@
         <v>468</v>
       </c>
       <c r="H743" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="744" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B744" s="56" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="C744" s="56" t="n">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="D744" s="56" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E744" s="24" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F744" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G744" s="57" t="n">
-        <v>282</v>
+        <v>546</v>
       </c>
       <c r="H744" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B745" s="56" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="C745" s="56" t="n">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="D745" s="56" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E745" s="24" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F745" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G745" s="57" t="n">
-        <v>312</v>
+        <v>414</v>
       </c>
       <c r="H745" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B746" s="56" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="C746" s="56" t="n">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="D746" s="56" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E746" s="24" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F746" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G746" s="57" t="n">
-        <v>366</v>
+        <v>486</v>
       </c>
       <c r="H746" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B747" s="56" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C747" s="56" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D747" s="56" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E747" s="24" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F747" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G747" s="57" t="n">
-        <v>468</v>
+        <v>588</v>
       </c>
       <c r="H747" s="0" t="s">
         <v>310</v>
@@ -25964,16 +25915,16 @@
     </row>
     <row r="748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B748" s="56" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C748" s="56" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D748" s="56" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E748" s="24" t="n">
         <v>15</v>
@@ -25982,7 +25933,7 @@
         <v>1</v>
       </c>
       <c r="G748" s="57" t="n">
-        <v>546</v>
+        <v>402</v>
       </c>
       <c r="H748" s="0" t="s">
         <v>310</v>
@@ -25990,25 +25941,25 @@
     </row>
     <row r="749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B749" s="56" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C749" s="56" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D749" s="56" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E749" s="24" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F749" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G749" s="57" t="n">
-        <v>414</v>
+        <v>480</v>
       </c>
       <c r="H749" s="0" t="s">
         <v>310</v>
@@ -26016,25 +25967,25 @@
     </row>
     <row r="750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B750" s="56" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C750" s="56" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D750" s="56" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E750" s="24" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F750" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G750" s="57" t="n">
-        <v>486</v>
+        <v>588</v>
       </c>
       <c r="H750" s="0" t="s">
         <v>310</v>
@@ -26042,25 +25993,25 @@
     </row>
     <row r="751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B751" s="56" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C751" s="56" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D751" s="56" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E751" s="24" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F751" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G751" s="57" t="n">
-        <v>588</v>
+        <v>750</v>
       </c>
       <c r="H751" s="0" t="s">
         <v>310</v>
@@ -26068,13 +26019,13 @@
     </row>
     <row r="752" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B752" s="56" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="C752" s="56" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D752" s="56" t="n">
         <v>0</v>
@@ -26086,7 +26037,7 @@
         <v>1</v>
       </c>
       <c r="G752" s="57" t="n">
-        <v>402</v>
+        <v>342</v>
       </c>
       <c r="H752" s="0" t="s">
         <v>310</v>
@@ -26094,13 +26045,13 @@
     </row>
     <row r="753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B753" s="56" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="C753" s="56" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D753" s="56" t="n">
         <v>15</v>
@@ -26112,7 +26063,7 @@
         <v>1</v>
       </c>
       <c r="G753" s="57" t="n">
-        <v>480</v>
+        <v>396</v>
       </c>
       <c r="H753" s="0" t="s">
         <v>310</v>
@@ -26120,13 +26071,13 @@
     </row>
     <row r="754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B754" s="56" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="C754" s="56" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D754" s="56" t="n">
         <v>20</v>
@@ -26138,7 +26089,7 @@
         <v>1</v>
       </c>
       <c r="G754" s="57" t="n">
-        <v>588</v>
+        <v>468</v>
       </c>
       <c r="H754" s="0" t="s">
         <v>310</v>
@@ -26146,13 +26097,13 @@
     </row>
     <row r="755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B755" s="56" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="C755" s="56" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D755" s="56" t="n">
         <v>30</v>
@@ -26164,7 +26115,7 @@
         <v>1</v>
       </c>
       <c r="G755" s="57" t="n">
-        <v>750</v>
+        <v>588</v>
       </c>
       <c r="H755" s="0" t="s">
         <v>310</v>
@@ -26172,25 +26123,25 @@
     </row>
     <row r="756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B756" s="56" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="C756" s="56" t="n">
         <v>150</v>
       </c>
       <c r="D756" s="56" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E756" s="24" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F756" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G756" s="57" t="n">
-        <v>342</v>
+        <v>750</v>
       </c>
       <c r="H756" s="0" t="s">
         <v>310</v>
@@ -26198,16 +26149,16 @@
     </row>
     <row r="757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B757" s="56" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="C757" s="56" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D757" s="56" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E757" s="24" t="n">
         <v>20</v>
@@ -26216,7 +26167,7 @@
         <v>1</v>
       </c>
       <c r="G757" s="57" t="n">
-        <v>396</v>
+        <v>342</v>
       </c>
       <c r="H757" s="0" t="s">
         <v>310</v>
@@ -26224,13 +26175,13 @@
     </row>
     <row r="758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B758" s="56" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="C758" s="56" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D758" s="56" t="n">
         <v>20</v>
@@ -26242,7 +26193,7 @@
         <v>1</v>
       </c>
       <c r="G758" s="57" t="n">
-        <v>468</v>
+        <v>390</v>
       </c>
       <c r="H758" s="0" t="s">
         <v>310</v>
@@ -26250,13 +26201,13 @@
     </row>
     <row r="759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B759" s="56" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="C759" s="56" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D759" s="56" t="n">
         <v>30</v>
@@ -26268,7 +26219,7 @@
         <v>1</v>
       </c>
       <c r="G759" s="57" t="n">
-        <v>588</v>
+        <v>468</v>
       </c>
       <c r="H759" s="0" t="s">
         <v>310</v>
@@ -26276,13 +26227,13 @@
     </row>
     <row r="760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B760" s="56" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="C760" s="56" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D760" s="56" t="n">
         <v>40</v>
@@ -26294,7 +26245,7 @@
         <v>1</v>
       </c>
       <c r="G760" s="57" t="n">
-        <v>750</v>
+        <v>588</v>
       </c>
       <c r="H760" s="0" t="s">
         <v>310</v>
@@ -26302,25 +26253,25 @@
     </row>
     <row r="761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B761" s="56" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="C761" s="56" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D761" s="56" t="n">
         <v>0</v>
       </c>
       <c r="E761" s="24" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F761" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G761" s="57" t="n">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="H761" s="0" t="s">
         <v>310</v>
@@ -26328,25 +26279,25 @@
     </row>
     <row r="762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B762" s="56" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="C762" s="56" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D762" s="56" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E762" s="24" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F762" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G762" s="57" t="n">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="H762" s="0" t="s">
         <v>310</v>
@@ -26354,19 +26305,19 @@
     </row>
     <row r="763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B763" s="56" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="C763" s="56" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D763" s="56" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E763" s="24" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F763" s="57" t="n">
         <v>1</v>
@@ -26380,25 +26331,25 @@
     </row>
     <row r="764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B764" s="56" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="C764" s="56" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="D764" s="56" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E764" s="24" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F764" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G764" s="57" t="n">
-        <v>588</v>
+        <v>282</v>
       </c>
       <c r="H764" s="0" t="s">
         <v>310</v>
@@ -26406,25 +26357,25 @@
     </row>
     <row r="765" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B765" s="56" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="C765" s="56" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="D765" s="56" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E765" s="24" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F765" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G765" s="57" t="n">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="H765" s="0" t="s">
         <v>310</v>
@@ -26432,25 +26383,25 @@
     </row>
     <row r="766" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B766" s="56" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="C766" s="56" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="D766" s="56" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E766" s="24" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F766" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G766" s="57" t="n">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="H766" s="0" t="s">
         <v>310</v>
@@ -26458,19 +26409,19 @@
     </row>
     <row r="767" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B767" s="56" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="C767" s="56" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="D767" s="56" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E767" s="24" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F767" s="57" t="n">
         <v>1</v>
@@ -26479,108 +26430,108 @@
         <v>468</v>
       </c>
       <c r="H767" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="768" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B768" s="56" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="C768" s="56" t="n">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="D768" s="56" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E768" s="24" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F768" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G768" s="57" t="n">
-        <v>282</v>
+        <v>546</v>
       </c>
       <c r="H768" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="769" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B769" s="56" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="C769" s="56" t="n">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="D769" s="56" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E769" s="24" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F769" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G769" s="57" t="n">
-        <v>312</v>
+        <v>414</v>
       </c>
       <c r="H769" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="770" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B770" s="56" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="C770" s="56" t="n">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="D770" s="56" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E770" s="24" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F770" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G770" s="57" t="n">
-        <v>366</v>
+        <v>486</v>
       </c>
       <c r="H770" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="771" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B771" s="56" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C771" s="56" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D771" s="56" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E771" s="24" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F771" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G771" s="57" t="n">
-        <v>468</v>
+        <v>588</v>
       </c>
       <c r="H771" s="0" t="s">
         <v>311</v>
@@ -26588,16 +26539,16 @@
     </row>
     <row r="772" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B772" s="56" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C772" s="56" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D772" s="56" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E772" s="24" t="n">
         <v>15</v>
@@ -26606,7 +26557,7 @@
         <v>1</v>
       </c>
       <c r="G772" s="57" t="n">
-        <v>546</v>
+        <v>402</v>
       </c>
       <c r="H772" s="0" t="s">
         <v>311</v>
@@ -26614,25 +26565,25 @@
     </row>
     <row r="773" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B773" s="56" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C773" s="56" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D773" s="56" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E773" s="24" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F773" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G773" s="57" t="n">
-        <v>414</v>
+        <v>480</v>
       </c>
       <c r="H773" s="0" t="s">
         <v>311</v>
@@ -26640,25 +26591,25 @@
     </row>
     <row r="774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B774" s="56" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C774" s="56" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D774" s="56" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E774" s="24" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F774" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G774" s="57" t="n">
-        <v>486</v>
+        <v>588</v>
       </c>
       <c r="H774" s="0" t="s">
         <v>311</v>
@@ -26666,25 +26617,25 @@
     </row>
     <row r="775" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B775" s="56" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C775" s="56" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D775" s="56" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E775" s="24" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F775" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G775" s="57" t="n">
-        <v>588</v>
+        <v>750</v>
       </c>
       <c r="H775" s="0" t="s">
         <v>311</v>
@@ -26692,13 +26643,13 @@
     </row>
     <row r="776" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B776" s="56" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="C776" s="56" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D776" s="56" t="n">
         <v>0</v>
@@ -26710,7 +26661,7 @@
         <v>1</v>
       </c>
       <c r="G776" s="57" t="n">
-        <v>402</v>
+        <v>342</v>
       </c>
       <c r="H776" s="0" t="s">
         <v>311</v>
@@ -26718,13 +26669,13 @@
     </row>
     <row r="777" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B777" s="56" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="C777" s="56" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D777" s="56" t="n">
         <v>15</v>
@@ -26736,7 +26687,7 @@
         <v>1</v>
       </c>
       <c r="G777" s="57" t="n">
-        <v>480</v>
+        <v>396</v>
       </c>
       <c r="H777" s="0" t="s">
         <v>311</v>
@@ -26744,13 +26695,13 @@
     </row>
     <row r="778" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B778" s="56" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="C778" s="56" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D778" s="56" t="n">
         <v>20</v>
@@ -26762,7 +26713,7 @@
         <v>1</v>
       </c>
       <c r="G778" s="57" t="n">
-        <v>588</v>
+        <v>468</v>
       </c>
       <c r="H778" s="0" t="s">
         <v>311</v>
@@ -26770,13 +26721,13 @@
     </row>
     <row r="779" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A779" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B779" s="56" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="C779" s="56" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D779" s="56" t="n">
         <v>30</v>
@@ -26788,7 +26739,7 @@
         <v>1</v>
       </c>
       <c r="G779" s="57" t="n">
-        <v>750</v>
+        <v>588</v>
       </c>
       <c r="H779" s="0" t="s">
         <v>311</v>
@@ -26796,7 +26747,7 @@
     </row>
     <row r="780" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B780" s="56" t="n">
         <v>100</v>
@@ -26805,16 +26756,16 @@
         <v>150</v>
       </c>
       <c r="D780" s="56" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E780" s="24" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F780" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G780" s="57" t="n">
-        <v>342</v>
+        <v>750</v>
       </c>
       <c r="H780" s="0" t="s">
         <v>311</v>
@@ -26822,16 +26773,16 @@
     </row>
     <row r="781" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B781" s="56" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="C781" s="56" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D781" s="56" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E781" s="24" t="n">
         <v>20</v>
@@ -26840,7 +26791,7 @@
         <v>1</v>
       </c>
       <c r="G781" s="57" t="n">
-        <v>396</v>
+        <v>342</v>
       </c>
       <c r="H781" s="0" t="s">
         <v>311</v>
@@ -26848,13 +26799,13 @@
     </row>
     <row r="782" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B782" s="56" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="C782" s="56" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D782" s="56" t="n">
         <v>20</v>
@@ -26866,7 +26817,7 @@
         <v>1</v>
       </c>
       <c r="G782" s="57" t="n">
-        <v>468</v>
+        <v>390</v>
       </c>
       <c r="H782" s="0" t="s">
         <v>311</v>
@@ -26874,13 +26825,13 @@
     </row>
     <row r="783" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B783" s="56" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="C783" s="56" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D783" s="56" t="n">
         <v>30</v>
@@ -26892,7 +26843,7 @@
         <v>1</v>
       </c>
       <c r="G783" s="57" t="n">
-        <v>588</v>
+        <v>468</v>
       </c>
       <c r="H783" s="0" t="s">
         <v>311</v>
@@ -26900,13 +26851,13 @@
     </row>
     <row r="784" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B784" s="56" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="C784" s="56" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D784" s="56" t="n">
         <v>40</v>
@@ -26918,7 +26869,7 @@
         <v>1</v>
       </c>
       <c r="G784" s="57" t="n">
-        <v>750</v>
+        <v>588</v>
       </c>
       <c r="H784" s="0" t="s">
         <v>311</v>
@@ -26926,25 +26877,25 @@
     </row>
     <row r="785" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B785" s="56" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="C785" s="56" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D785" s="56" t="n">
         <v>0</v>
       </c>
       <c r="E785" s="24" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F785" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G785" s="57" t="n">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="H785" s="0" t="s">
         <v>311</v>
@@ -26952,25 +26903,25 @@
     </row>
     <row r="786" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B786" s="56" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="C786" s="56" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D786" s="56" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E786" s="24" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F786" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G786" s="57" t="n">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="H786" s="0" t="s">
         <v>311</v>
@@ -26978,19 +26929,19 @@
     </row>
     <row r="787" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B787" s="56" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="C787" s="56" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D787" s="56" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E787" s="24" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F787" s="57" t="n">
         <v>1</v>
@@ -27004,25 +26955,25 @@
     </row>
     <row r="788" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B788" s="56" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="C788" s="56" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="D788" s="56" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E788" s="24" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F788" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G788" s="57" t="n">
-        <v>588</v>
+        <v>282</v>
       </c>
       <c r="H788" s="0" t="s">
         <v>311</v>
@@ -27030,25 +26981,25 @@
     </row>
     <row r="789" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B789" s="56" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="C789" s="56" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="D789" s="56" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E789" s="24" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F789" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G789" s="57" t="n">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="H789" s="0" t="s">
         <v>311</v>
@@ -27056,25 +27007,25 @@
     </row>
     <row r="790" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B790" s="56" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="C790" s="56" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="D790" s="56" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E790" s="24" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F790" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G790" s="57" t="n">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="H790" s="0" t="s">
         <v>311</v>
@@ -27082,19 +27033,19 @@
     </row>
     <row r="791" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B791" s="56" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="C791" s="56" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="D791" s="56" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E791" s="24" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F791" s="57" t="n">
         <v>1</v>
@@ -27103,605 +27054,665 @@
         <v>468</v>
       </c>
       <c r="H791" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="792" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B792" s="56" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="C792" s="56" t="n">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="D792" s="56" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E792" s="24" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F792" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G792" s="57" t="n">
-        <v>282</v>
+        <v>546</v>
       </c>
       <c r="H792" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="793" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B793" s="56" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="C793" s="56" t="n">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="D793" s="56" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E793" s="24" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F793" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G793" s="57" t="n">
+        <v>414</v>
+      </c>
+      <c r="H793" s="0" t="s">
         <v>312</v>
-      </c>
-      <c r="H793" s="0" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="794" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B794" s="56" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="C794" s="56" t="n">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="D794" s="56" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E794" s="24" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F794" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G794" s="57" t="n">
-        <v>366</v>
+        <v>486</v>
       </c>
       <c r="H794" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="795" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A795" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B795" s="56" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C795" s="56" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D795" s="56" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E795" s="24" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F795" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G795" s="57" t="n">
-        <v>366</v>
+        <v>588</v>
+      </c>
+      <c r="H795" s="0" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A796" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B796" s="56" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C796" s="56" t="n">
         <v>100</v>
       </c>
       <c r="D796" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E796" s="24" t="n">
         <v>15</v>
       </c>
-      <c r="E796" s="24" t="n">
-        <v>20</v>
-      </c>
       <c r="F796" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G796" s="57" t="n">
-        <v>504</v>
+        <v>402</v>
+      </c>
+      <c r="H796" s="0" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="797" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A797" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B797" s="56" t="n">
+        <v>75</v>
+      </c>
+      <c r="C797" s="56" t="n">
         <v>100</v>
       </c>
-      <c r="C797" s="56" t="n">
-        <v>200</v>
-      </c>
       <c r="D797" s="56" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E797" s="24" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F797" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G797" s="57" t="n">
-        <v>318</v>
+        <v>480</v>
+      </c>
+      <c r="H797" s="0" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="798" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A798" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B798" s="56" t="n">
+        <v>75</v>
+      </c>
+      <c r="C798" s="56" t="n">
         <v>100</v>
       </c>
-      <c r="C798" s="56" t="n">
-        <v>200</v>
-      </c>
       <c r="D798" s="56" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E798" s="24" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F798" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G798" s="57" t="n">
-        <v>408</v>
+        <v>588</v>
+      </c>
+      <c r="H798" s="0" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="799" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A799" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B799" s="56" t="n">
+        <v>75</v>
+      </c>
+      <c r="C799" s="56" t="n">
         <v>100</v>
       </c>
-      <c r="C799" s="56" t="n">
-        <v>200</v>
-      </c>
       <c r="D799" s="56" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E799" s="24" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F799" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G799" s="57" t="n">
-        <v>600</v>
+        <v>750</v>
+      </c>
+      <c r="H799" s="0" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="800" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B800" s="56" t="n">
         <v>100</v>
       </c>
       <c r="C800" s="56" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D800" s="56" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E800" s="24" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="F800" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G800" s="57" t="n">
-        <v>900</v>
+        <v>342</v>
+      </c>
+      <c r="H800" s="0" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="801" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B801" s="56" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C801" s="56" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D801" s="56" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E801" s="24" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F801" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G801" s="57" t="n">
-        <v>288</v>
+        <v>396</v>
+      </c>
+      <c r="H801" s="0" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B802" s="56" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C802" s="56" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D802" s="56" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E802" s="24" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F802" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G802" s="57" t="n">
-        <v>336</v>
+        <v>468</v>
+      </c>
+      <c r="H802" s="0" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A803" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B803" s="56" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C803" s="56" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D803" s="56" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E803" s="24" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F803" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G803" s="57" t="n">
-        <v>462</v>
+        <v>588</v>
+      </c>
+      <c r="H803" s="0" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B804" s="56" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C804" s="56" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D804" s="56" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E804" s="24" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F804" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G804" s="57" t="n">
-        <v>630</v>
+        <v>750</v>
+      </c>
+      <c r="H804" s="0" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B805" s="56" t="n">
+        <v>150</v>
+      </c>
+      <c r="C805" s="56" t="n">
         <v>200</v>
       </c>
-      <c r="C805" s="56" t="n">
-        <v>300</v>
-      </c>
       <c r="D805" s="56" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E805" s="24" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="F805" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G805" s="57" t="n">
-        <v>900</v>
+        <v>342</v>
+      </c>
+      <c r="H805" s="0" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="806" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A806" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B806" s="56" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C806" s="56" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D806" s="56" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E806" s="24" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F806" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G806" s="57" t="n">
-        <v>270</v>
+        <v>390</v>
+      </c>
+      <c r="H806" s="0" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="807" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B807" s="56" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C807" s="56" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D807" s="56" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E807" s="24" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F807" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G807" s="57" t="n">
-        <v>306</v>
+        <v>468</v>
+      </c>
+      <c r="H807" s="0" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="808" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A808" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B808" s="56" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C808" s="56" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D808" s="56" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E808" s="24" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F808" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G808" s="57" t="n">
-        <v>396</v>
+        <v>588</v>
+      </c>
+      <c r="H808" s="0" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="809" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A809" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B809" s="56" t="n">
+        <v>200</v>
+      </c>
+      <c r="C809" s="56" t="n">
         <v>300</v>
       </c>
-      <c r="C809" s="56" t="n">
-        <v>400</v>
-      </c>
       <c r="D809" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E809" s="24" t="n">
         <v>30</v>
       </c>
-      <c r="E809" s="24" t="n">
-        <v>40</v>
-      </c>
       <c r="F809" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G809" s="57" t="n">
-        <v>516</v>
+        <v>330</v>
+      </c>
+      <c r="H809" s="0" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A810" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B810" s="56" t="n">
+        <v>200</v>
+      </c>
+      <c r="C810" s="56" t="n">
         <v>300</v>
       </c>
-      <c r="C810" s="56" t="n">
-        <v>400</v>
-      </c>
       <c r="D810" s="56" t="n">
+        <v>30</v>
+      </c>
+      <c r="E810" s="24" t="n">
         <v>40</v>
       </c>
-      <c r="E810" s="24" t="n">
-        <v>60</v>
-      </c>
       <c r="F810" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G810" s="57" t="n">
-        <v>690</v>
+        <v>384</v>
+      </c>
+      <c r="H810" s="0" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B811" s="56" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C811" s="56" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D811" s="56" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E811" s="24" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F811" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G811" s="57" t="n">
-        <v>258</v>
+        <v>468</v>
+      </c>
+      <c r="H811" s="0" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B812" s="56" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="C812" s="56" t="n">
         <v>500</v>
       </c>
       <c r="D812" s="56" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E812" s="24" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F812" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G812" s="57" t="n">
-        <v>288</v>
+        <v>282</v>
+      </c>
+      <c r="H812" s="0" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="813" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B813" s="56" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="C813" s="56" t="n">
         <v>500</v>
       </c>
       <c r="D813" s="56" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E813" s="24" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F813" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G813" s="57" t="n">
-        <v>354</v>
+        <v>312</v>
+      </c>
+      <c r="H813" s="0" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="814" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A814" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B814" s="56" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="C814" s="56" t="n">
         <v>500</v>
       </c>
       <c r="D814" s="56" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E814" s="24" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F814" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G814" s="57" t="n">
-        <v>456</v>
+        <v>366</v>
+      </c>
+      <c r="H814" s="0" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="58" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B815" s="56" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C815" s="56" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="D815" s="56" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E815" s="24" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F815" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G815" s="57" t="n">
-        <v>600</v>
+        <v>366</v>
       </c>
     </row>
     <row r="816" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="58" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B816" s="56" t="n">
         <v>0</v>
       </c>
       <c r="C816" s="56" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D816" s="56" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E816" s="24" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F816" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G816" s="57" t="n">
-        <v>468</v>
+        <v>504</v>
       </c>
     </row>
     <row r="817" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="58" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B817" s="56" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C817" s="56" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D817" s="56" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E817" s="24" t="n">
         <v>15</v>
@@ -27710,87 +27721,87 @@
         <v>1</v>
       </c>
       <c r="G817" s="57" t="n">
-        <v>546</v>
+        <v>318</v>
       </c>
     </row>
     <row r="818" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A818" s="58" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B818" s="56" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C818" s="56" t="n">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="D818" s="56" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E818" s="24" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F818" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G818" s="57" t="n">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="819" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A819" s="58" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B819" s="56" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C819" s="56" t="n">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="D819" s="56" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E819" s="24" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F819" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G819" s="57" t="n">
-        <v>486</v>
+        <v>600</v>
       </c>
     </row>
     <row r="820" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A820" s="58" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B820" s="56" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C820" s="56" t="n">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="D820" s="56" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E820" s="24" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F820" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G820" s="57" t="n">
-        <v>588</v>
+        <v>900</v>
       </c>
     </row>
     <row r="821" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A821" s="58" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B821" s="56" t="n">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="C821" s="56" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="D821" s="56" t="n">
         <v>0</v>
@@ -27802,18 +27813,18 @@
         <v>1</v>
       </c>
       <c r="G821" s="57" t="n">
-        <v>402</v>
+        <v>288</v>
       </c>
     </row>
     <row r="822" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="58" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B822" s="56" t="n">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="C822" s="56" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="D822" s="56" t="n">
         <v>15</v>
@@ -27825,18 +27836,18 @@
         <v>1</v>
       </c>
       <c r="G822" s="57" t="n">
-        <v>480</v>
+        <v>336</v>
       </c>
     </row>
     <row r="823" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="58" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B823" s="56" t="n">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="C823" s="56" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="D823" s="56" t="n">
         <v>20</v>
@@ -27848,18 +27859,18 @@
         <v>1</v>
       </c>
       <c r="G823" s="57" t="n">
-        <v>588</v>
+        <v>462</v>
       </c>
     </row>
     <row r="824" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A824" s="58" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B824" s="56" t="n">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="C824" s="56" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="D824" s="56" t="n">
         <v>30</v>
@@ -27871,277 +27882,277 @@
         <v>1</v>
       </c>
       <c r="G824" s="57" t="n">
-        <v>750</v>
+        <v>630</v>
       </c>
     </row>
     <row r="825" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="58" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B825" s="56" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C825" s="56" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="D825" s="56" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E825" s="24" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F825" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G825" s="57" t="n">
-        <v>342</v>
+        <v>900</v>
       </c>
     </row>
     <row r="826" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="58" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B826" s="56" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="C826" s="56" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="D826" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E826" s="24" t="n">
         <v>15</v>
       </c>
-      <c r="E826" s="24" t="n">
-        <v>20</v>
-      </c>
       <c r="F826" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G826" s="57" t="n">
-        <v>396</v>
+        <v>270</v>
       </c>
     </row>
     <row r="827" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="58" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B827" s="56" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="C827" s="56" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="D827" s="56" t="n">
+        <v>15</v>
+      </c>
+      <c r="E827" s="24" t="n">
         <v>20</v>
       </c>
-      <c r="E827" s="24" t="n">
-        <v>30</v>
-      </c>
       <c r="F827" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G827" s="57" t="n">
-        <v>468</v>
+        <v>306</v>
       </c>
     </row>
     <row r="828" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="58" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B828" s="56" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="C828" s="56" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="D828" s="56" t="n">
+        <v>20</v>
+      </c>
+      <c r="E828" s="24" t="n">
         <v>30</v>
       </c>
-      <c r="E828" s="24" t="n">
-        <v>40</v>
-      </c>
       <c r="F828" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G828" s="57" t="n">
-        <v>588</v>
+        <v>396</v>
       </c>
     </row>
     <row r="829" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="58" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B829" s="56" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="C829" s="56" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="D829" s="56" t="n">
+        <v>30</v>
+      </c>
+      <c r="E829" s="24" t="n">
         <v>40</v>
       </c>
-      <c r="E829" s="24" t="n">
-        <v>60</v>
-      </c>
       <c r="F829" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G829" s="57" t="n">
-        <v>750</v>
+        <v>516</v>
       </c>
     </row>
     <row r="830" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A830" s="58" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B830" s="56" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="C830" s="56" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D830" s="56" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E830" s="24" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F830" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G830" s="57" t="n">
-        <v>342</v>
+        <v>690</v>
       </c>
     </row>
     <row r="831" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A831" s="58" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B831" s="56" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="C831" s="56" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="D831" s="56" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E831" s="24" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F831" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G831" s="57" t="n">
-        <v>390</v>
+        <v>258</v>
       </c>
     </row>
     <row r="832" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A832" s="58" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B832" s="56" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="C832" s="56" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="D832" s="56" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E832" s="24" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F832" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G832" s="57" t="n">
-        <v>468</v>
+        <v>288</v>
       </c>
     </row>
     <row r="833" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="58" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B833" s="56" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="C833" s="56" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="D833" s="56" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E833" s="24" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F833" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G833" s="57" t="n">
-        <v>588</v>
+        <v>354</v>
       </c>
     </row>
     <row r="834" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="58" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B834" s="56" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C834" s="56" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="D834" s="56" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E834" s="24" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F834" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G834" s="57" t="n">
-        <v>330</v>
+        <v>456</v>
       </c>
     </row>
     <row r="835" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A835" s="58" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B835" s="56" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C835" s="56" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="D835" s="56" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E835" s="24" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F835" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G835" s="57" t="n">
-        <v>384</v>
+        <v>600</v>
       </c>
     </row>
     <row r="836" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A836" s="58" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B836" s="56" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="C836" s="56" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="D836" s="56" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E836" s="24" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F836" s="57" t="n">
         <v>1</v>
@@ -28152,71 +28163,71 @@
     </row>
     <row r="837" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A837" s="58" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B837" s="56" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="C837" s="56" t="n">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="D837" s="56" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E837" s="24" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F837" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G837" s="57" t="n">
-        <v>282</v>
+        <v>546</v>
       </c>
     </row>
     <row r="838" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A838" s="58" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B838" s="56" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="C838" s="56" t="n">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="D838" s="56" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E838" s="24" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F838" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G838" s="57" t="n">
-        <v>312</v>
+        <v>414</v>
       </c>
     </row>
     <row r="839" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="58" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B839" s="56" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="C839" s="56" t="n">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="D839" s="56" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E839" s="24" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F839" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G839" s="57" t="n">
-        <v>366</v>
+        <v>486</v>
       </c>
     </row>
     <row r="840" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28224,13 +28235,13 @@
         <v>313</v>
       </c>
       <c r="B840" s="56" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C840" s="56" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="D840" s="56" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E840" s="24" t="n">
         <v>20</v>
@@ -28239,7 +28250,7 @@
         <v>1</v>
       </c>
       <c r="G840" s="57" t="n">
-        <v>198</v>
+        <v>588</v>
       </c>
     </row>
     <row r="841" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28247,22 +28258,22 @@
         <v>313</v>
       </c>
       <c r="B841" s="56" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C841" s="56" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="D841" s="56" t="n">
-        <v>20</v>
-      </c>
-      <c r="E841" s="58" t="n">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="E841" s="24" t="n">
+        <v>15</v>
       </c>
       <c r="F841" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G841" s="57" t="n">
-        <v>240</v>
+        <v>402</v>
       </c>
     </row>
     <row r="842" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28270,22 +28281,22 @@
         <v>313</v>
       </c>
       <c r="B842" s="56" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C842" s="56" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="D842" s="56" t="n">
-        <v>40</v>
-      </c>
-      <c r="E842" s="58" t="n">
-        <v>60</v>
+        <v>15</v>
+      </c>
+      <c r="E842" s="24" t="n">
+        <v>20</v>
       </c>
       <c r="F842" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G842" s="57" t="n">
-        <v>276</v>
+        <v>480</v>
       </c>
     </row>
     <row r="843" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28293,22 +28304,22 @@
         <v>313</v>
       </c>
       <c r="B843" s="56" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C843" s="56" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="D843" s="56" t="n">
-        <v>60</v>
-      </c>
-      <c r="E843" s="58" t="n">
-        <v>80</v>
+        <v>20</v>
+      </c>
+      <c r="E843" s="24" t="n">
+        <v>30</v>
       </c>
       <c r="F843" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G843" s="57" t="n">
-        <v>306</v>
+        <v>588</v>
       </c>
     </row>
     <row r="844" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28316,22 +28327,22 @@
         <v>313</v>
       </c>
       <c r="B844" s="56" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C844" s="56" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="D844" s="56" t="n">
-        <v>80</v>
-      </c>
-      <c r="E844" s="58" t="n">
-        <v>120</v>
+        <v>30</v>
+      </c>
+      <c r="E844" s="24" t="n">
+        <v>40</v>
       </c>
       <c r="F844" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G844" s="57" t="n">
-        <v>330</v>
+        <v>750</v>
       </c>
     </row>
     <row r="845" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28339,22 +28350,22 @@
         <v>313</v>
       </c>
       <c r="B845" s="56" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C845" s="56" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="D845" s="56" t="n">
         <v>0</v>
       </c>
       <c r="E845" s="24" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F845" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G845" s="57" t="n">
-        <v>164</v>
+        <v>342</v>
       </c>
     </row>
     <row r="846" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28362,22 +28373,22 @@
         <v>313</v>
       </c>
       <c r="B846" s="56" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C846" s="56" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="D846" s="56" t="n">
+        <v>15</v>
+      </c>
+      <c r="E846" s="24" t="n">
         <v>20</v>
       </c>
-      <c r="E846" s="58" t="n">
-        <v>40</v>
-      </c>
       <c r="F846" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G846" s="57" t="n">
-        <v>200</v>
+        <v>396</v>
       </c>
     </row>
     <row r="847" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28385,45 +28396,45 @@
         <v>313</v>
       </c>
       <c r="B847" s="56" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C847" s="56" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="D847" s="56" t="n">
-        <v>40</v>
-      </c>
-      <c r="E847" s="58" t="n">
-        <v>60</v>
+        <v>20</v>
+      </c>
+      <c r="E847" s="24" t="n">
+        <v>30</v>
       </c>
       <c r="F847" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G847" s="57" t="n">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="848" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="848" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A848" s="58" t="s">
         <v>313</v>
       </c>
       <c r="B848" s="56" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C848" s="56" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="D848" s="56" t="n">
-        <v>60</v>
-      </c>
-      <c r="E848" s="58" t="n">
-        <v>80</v>
+        <v>30</v>
+      </c>
+      <c r="E848" s="24" t="n">
+        <v>40</v>
       </c>
       <c r="F848" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G848" s="57" t="n">
-        <v>256</v>
+        <v>588</v>
       </c>
     </row>
     <row r="849" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28431,22 +28442,22 @@
         <v>313</v>
       </c>
       <c r="B849" s="56" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C849" s="56" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="D849" s="56" t="n">
-        <v>80</v>
-      </c>
-      <c r="E849" s="58" t="n">
-        <v>120</v>
+        <v>40</v>
+      </c>
+      <c r="E849" s="24" t="n">
+        <v>60</v>
       </c>
       <c r="F849" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G849" s="57" t="n">
-        <v>272</v>
+        <v>750</v>
       </c>
     </row>
     <row r="850" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28454,10 +28465,10 @@
         <v>313</v>
       </c>
       <c r="B850" s="56" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="C850" s="56" t="n">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="D850" s="56" t="n">
         <v>0</v>
@@ -28469,7 +28480,7 @@
         <v>1</v>
       </c>
       <c r="G850" s="57" t="n">
-        <v>171</v>
+        <v>342</v>
       </c>
     </row>
     <row r="851" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28477,22 +28488,22 @@
         <v>313</v>
       </c>
       <c r="B851" s="56" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="C851" s="56" t="n">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="D851" s="56" t="n">
         <v>20</v>
       </c>
-      <c r="E851" s="58" t="n">
-        <v>40</v>
+      <c r="E851" s="24" t="n">
+        <v>30</v>
       </c>
       <c r="F851" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G851" s="57" t="n">
-        <v>192</v>
+        <v>390</v>
       </c>
     </row>
     <row r="852" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28500,22 +28511,22 @@
         <v>313</v>
       </c>
       <c r="B852" s="56" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="C852" s="56" t="n">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="D852" s="56" t="n">
+        <v>30</v>
+      </c>
+      <c r="E852" s="24" t="n">
         <v>40</v>
       </c>
-      <c r="E852" s="58" t="n">
-        <v>60</v>
-      </c>
       <c r="F852" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G852" s="57" t="n">
-        <v>213</v>
+        <v>468</v>
       </c>
     </row>
     <row r="853" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28523,22 +28534,22 @@
         <v>313</v>
       </c>
       <c r="B853" s="56" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="C853" s="56" t="n">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="D853" s="56" t="n">
+        <v>40</v>
+      </c>
+      <c r="E853" s="24" t="n">
         <v>60</v>
       </c>
-      <c r="E853" s="58" t="n">
-        <v>80</v>
-      </c>
       <c r="F853" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G853" s="57" t="n">
-        <v>231</v>
+        <v>588</v>
       </c>
     </row>
     <row r="854" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28546,22 +28557,22 @@
         <v>313</v>
       </c>
       <c r="B854" s="56" t="n">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="C854" s="56" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="D854" s="56" t="n">
-        <v>80</v>
-      </c>
-      <c r="E854" s="58" t="n">
-        <v>120</v>
+        <v>0</v>
+      </c>
+      <c r="E854" s="24" t="n">
+        <v>30</v>
       </c>
       <c r="F854" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G854" s="57" t="n">
-        <v>243</v>
+        <v>330</v>
       </c>
     </row>
     <row r="855" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28569,22 +28580,22 @@
         <v>313</v>
       </c>
       <c r="B855" s="56" t="n">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="C855" s="56" t="n">
-        <v>2500</v>
+        <v>300</v>
       </c>
       <c r="D855" s="56" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E855" s="24" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F855" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G855" s="57" t="n">
-        <v>177.6</v>
+        <v>384</v>
       </c>
     </row>
     <row r="856" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28592,45 +28603,45 @@
         <v>313</v>
       </c>
       <c r="B856" s="56" t="n">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="C856" s="56" t="n">
-        <v>2500</v>
+        <v>300</v>
       </c>
       <c r="D856" s="56" t="n">
-        <v>20</v>
-      </c>
-      <c r="E856" s="58" t="n">
         <v>40</v>
       </c>
+      <c r="E856" s="24" t="n">
+        <v>60</v>
+      </c>
       <c r="F856" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G856" s="57" t="n">
-        <v>189.6</v>
-      </c>
-    </row>
-    <row r="857" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="857" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A857" s="58" t="s">
         <v>313</v>
       </c>
       <c r="B857" s="56" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="C857" s="56" t="n">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="D857" s="56" t="n">
-        <v>40</v>
-      </c>
-      <c r="E857" s="58" t="n">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="E857" s="24" t="n">
+        <v>30</v>
       </c>
       <c r="F857" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G857" s="57" t="n">
-        <v>201.6</v>
+        <v>282</v>
       </c>
     </row>
     <row r="858" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28638,22 +28649,22 @@
         <v>313</v>
       </c>
       <c r="B858" s="56" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="C858" s="56" t="n">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="D858" s="56" t="n">
-        <v>60</v>
-      </c>
-      <c r="E858" s="58" t="n">
-        <v>80</v>
+        <v>30</v>
+      </c>
+      <c r="E858" s="24" t="n">
+        <v>40</v>
       </c>
       <c r="F858" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G858" s="57" t="n">
-        <v>213.6</v>
+        <v>312</v>
       </c>
     </row>
     <row r="859" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28661,33 +28672,33 @@
         <v>313</v>
       </c>
       <c r="B859" s="56" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="C859" s="56" t="n">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="D859" s="56" t="n">
-        <v>80</v>
-      </c>
-      <c r="E859" s="58" t="n">
-        <v>120</v>
+        <v>40</v>
+      </c>
+      <c r="E859" s="24" t="n">
+        <v>60</v>
       </c>
       <c r="F859" s="57" t="n">
         <v>1</v>
       </c>
       <c r="G859" s="57" t="n">
-        <v>225.6</v>
+        <v>366</v>
       </c>
     </row>
     <row r="860" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A860" s="58" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B860" s="56" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="C860" s="56" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="D860" s="56" t="n">
         <v>0</v>
@@ -28699,18 +28710,18 @@
         <v>1</v>
       </c>
       <c r="G860" s="57" t="n">
-        <v>142</v>
+        <v>198</v>
       </c>
     </row>
     <row r="861" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A861" s="58" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B861" s="56" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="C861" s="56" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="D861" s="56" t="n">
         <v>20</v>
@@ -28722,18 +28733,18 @@
         <v>1</v>
       </c>
       <c r="G861" s="57" t="n">
-        <v>166</v>
+        <v>240</v>
       </c>
     </row>
     <row r="862" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A862" s="58" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B862" s="56" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="C862" s="56" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="D862" s="56" t="n">
         <v>40</v>
@@ -28745,18 +28756,18 @@
         <v>1</v>
       </c>
       <c r="G862" s="57" t="n">
-        <v>188</v>
+        <v>276</v>
       </c>
     </row>
     <row r="863" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="58" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B863" s="56" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="C863" s="56" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="D863" s="56" t="n">
         <v>60</v>
@@ -28768,18 +28779,18 @@
         <v>1</v>
       </c>
       <c r="G863" s="57" t="n">
-        <v>210</v>
+        <v>306</v>
       </c>
     </row>
     <row r="864" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A864" s="58" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B864" s="56" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="C864" s="56" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="D864" s="56" t="n">
         <v>80</v>
@@ -28791,23 +28802,483 @@
         <v>1</v>
       </c>
       <c r="G864" s="57" t="n">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="865" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A865" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="B865" s="56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C865" s="56" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D865" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E865" s="24" t="n">
+        <v>20</v>
+      </c>
+      <c r="F865" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G865" s="57" t="n">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="866" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A866" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="B866" s="56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C866" s="56" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D866" s="56" t="n">
+        <v>20</v>
+      </c>
+      <c r="E866" s="58" t="n">
+        <v>40</v>
+      </c>
+      <c r="F866" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G866" s="57" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="867" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A867" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="B867" s="56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C867" s="56" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D867" s="56" t="n">
+        <v>40</v>
+      </c>
+      <c r="E867" s="58" t="n">
+        <v>60</v>
+      </c>
+      <c r="F867" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G867" s="57" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="868" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A868" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="B868" s="56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C868" s="56" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D868" s="56" t="n">
+        <v>60</v>
+      </c>
+      <c r="E868" s="58" t="n">
+        <v>80</v>
+      </c>
+      <c r="F868" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G868" s="57" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="869" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A869" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="B869" s="56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C869" s="56" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D869" s="56" t="n">
+        <v>80</v>
+      </c>
+      <c r="E869" s="58" t="n">
+        <v>120</v>
+      </c>
+      <c r="F869" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G869" s="57" t="n">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="870" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A870" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="B870" s="56" t="n">
+        <v>1500</v>
+      </c>
+      <c r="C870" s="56" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D870" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E870" s="24" t="n">
+        <v>20</v>
+      </c>
+      <c r="F870" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G870" s="57" t="n">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="871" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A871" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="B871" s="56" t="n">
+        <v>1500</v>
+      </c>
+      <c r="C871" s="56" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D871" s="56" t="n">
+        <v>20</v>
+      </c>
+      <c r="E871" s="58" t="n">
+        <v>40</v>
+      </c>
+      <c r="F871" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G871" s="57" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="872" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A872" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="B872" s="56" t="n">
+        <v>1500</v>
+      </c>
+      <c r="C872" s="56" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D872" s="56" t="n">
+        <v>40</v>
+      </c>
+      <c r="E872" s="58" t="n">
+        <v>60</v>
+      </c>
+      <c r="F872" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G872" s="57" t="n">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="873" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A873" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="B873" s="56" t="n">
+        <v>1500</v>
+      </c>
+      <c r="C873" s="56" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D873" s="56" t="n">
+        <v>60</v>
+      </c>
+      <c r="E873" s="58" t="n">
+        <v>80</v>
+      </c>
+      <c r="F873" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G873" s="57" t="n">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="874" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A874" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="B874" s="56" t="n">
+        <v>1500</v>
+      </c>
+      <c r="C874" s="56" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D874" s="56" t="n">
+        <v>80</v>
+      </c>
+      <c r="E874" s="58" t="n">
+        <v>120</v>
+      </c>
+      <c r="F874" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G874" s="57" t="n">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="875" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A875" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="B875" s="56" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C875" s="56" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D875" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E875" s="24" t="n">
+        <v>20</v>
+      </c>
+      <c r="F875" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G875" s="57" t="n">
+        <v>177.6</v>
+      </c>
+    </row>
+    <row r="876" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A876" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="B876" s="56" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C876" s="56" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D876" s="56" t="n">
+        <v>20</v>
+      </c>
+      <c r="E876" s="58" t="n">
+        <v>40</v>
+      </c>
+      <c r="F876" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G876" s="57" t="n">
+        <v>189.6</v>
+      </c>
+    </row>
+    <row r="877" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A877" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="B877" s="56" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C877" s="56" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D877" s="56" t="n">
+        <v>40</v>
+      </c>
+      <c r="E877" s="58" t="n">
+        <v>60</v>
+      </c>
+      <c r="F877" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G877" s="57" t="n">
+        <v>201.6</v>
+      </c>
+    </row>
+    <row r="878" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A878" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="B878" s="56" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C878" s="56" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D878" s="56" t="n">
+        <v>60</v>
+      </c>
+      <c r="E878" s="58" t="n">
+        <v>80</v>
+      </c>
+      <c r="F878" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G878" s="57" t="n">
+        <v>213.6</v>
+      </c>
+    </row>
+    <row r="879" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A879" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="B879" s="56" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C879" s="56" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D879" s="56" t="n">
+        <v>80</v>
+      </c>
+      <c r="E879" s="58" t="n">
+        <v>120</v>
+      </c>
+      <c r="F879" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G879" s="57" t="n">
+        <v>225.6</v>
+      </c>
+    </row>
+    <row r="880" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A880" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="B880" s="56" t="n">
+        <v>2500</v>
+      </c>
+      <c r="C880" s="56" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D880" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E880" s="24" t="n">
+        <v>20</v>
+      </c>
+      <c r="F880" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G880" s="57" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="881" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A881" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="B881" s="56" t="n">
+        <v>2500</v>
+      </c>
+      <c r="C881" s="56" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D881" s="56" t="n">
+        <v>20</v>
+      </c>
+      <c r="E881" s="58" t="n">
+        <v>40</v>
+      </c>
+      <c r="F881" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G881" s="57" t="n">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="882" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A882" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="B882" s="56" t="n">
+        <v>2500</v>
+      </c>
+      <c r="C882" s="56" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D882" s="56" t="n">
+        <v>40</v>
+      </c>
+      <c r="E882" s="58" t="n">
+        <v>60</v>
+      </c>
+      <c r="F882" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G882" s="57" t="n">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="883" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A883" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="B883" s="56" t="n">
+        <v>2500</v>
+      </c>
+      <c r="C883" s="56" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D883" s="56" t="n">
+        <v>60</v>
+      </c>
+      <c r="E883" s="58" t="n">
+        <v>80</v>
+      </c>
+      <c r="F883" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G883" s="57" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="884" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A884" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="B884" s="56" t="n">
+        <v>2500</v>
+      </c>
+      <c r="C884" s="56" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D884" s="56" t="n">
+        <v>80</v>
+      </c>
+      <c r="E884" s="58" t="n">
+        <v>120</v>
+      </c>
+      <c r="F884" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G884" s="57" t="n">
         <v>220</v>
       </c>
     </row>
-    <row r="865" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B865" s="56"/>
-    </row>
-    <row r="866" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B866" s="56"/>
-    </row>
-    <row r="867" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B867" s="56"/>
-    </row>
-    <row r="868" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B868" s="56"/>
-    </row>
-    <row r="869" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B869" s="56"/>
+    <row r="885" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B885" s="56"/>
+    </row>
+    <row r="886" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B886" s="56"/>
+    </row>
+    <row r="887" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B887" s="56"/>
+    </row>
+    <row r="888" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B888" s="56"/>
+    </row>
+    <row r="889" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B889" s="56"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -28831,7 +29302,7 @@
       <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.85"/>
@@ -28957,11 +29428,11 @@
       <selection pane="topLeft" activeCell="L30" activeCellId="0" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="45" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B1" s="45"/>
       <c r="C1" s="45"/>
@@ -28978,22 +29449,22 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="47" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="62" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B9" s="24" t="n">
         <v>5</v>
@@ -29001,7 +29472,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="62" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B10" s="24" t="n">
         <v>7</v>
@@ -29009,7 +29480,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="62" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B11" s="24" t="n">
         <v>10</v>
@@ -29017,7 +29488,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="62" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B12" s="24" t="n">
         <v>12</v>
@@ -29025,7 +29496,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="62" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B13" s="24" t="n">
         <v>14</v>
@@ -29033,7 +29504,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="62" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B14" s="24" t="n">
         <v>16</v>
@@ -29041,7 +29512,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="62" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B15" s="24" t="n">
         <v>18</v>
@@ -29069,7 +29540,7 @@
       <selection pane="topLeft" activeCell="I23" activeCellId="0" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.71"/>
@@ -29084,43 +29555,43 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="84.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="63" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B4" s="63" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D4" s="63" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E4" s="63"/>
       <c r="F4" s="63" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G4" s="63" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H4" s="63"/>
       <c r="I4" s="63" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="J4" s="63"/>
       <c r="K4" s="63"/>
       <c r="L4" s="63"/>
       <c r="M4" s="63" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N4" s="63"/>
       <c r="O4" s="63"/>
@@ -29128,12 +29599,12 @@
       <c r="Q4" s="63"/>
       <c r="R4" s="63"/>
       <c r="S4" s="63" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="T4" s="63"/>
       <c r="U4" s="63"/>
       <c r="V4" s="63" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="W4" s="63"/>
       <c r="X4" s="63"/>
@@ -29142,7 +29613,7 @@
       <c r="AA4" s="63"/>
       <c r="AB4" s="63"/>
       <c r="AC4" s="63" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AD4" s="63"/>
     </row>
@@ -29151,77 +29622,77 @@
       <c r="B5" s="63"/>
       <c r="C5" s="63"/>
       <c r="D5" s="63" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E5" s="63" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F5" s="63"/>
       <c r="G5" s="63" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H5" s="63" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I5" s="63" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="J5" s="63" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K5" s="63" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L5" s="63" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M5" s="63" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N5" s="63"/>
       <c r="O5" s="63" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P5" s="63"/>
       <c r="Q5" s="63" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="R5" s="63"/>
       <c r="S5" s="63" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="T5" s="63" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="U5" s="63" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="V5" s="63" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="W5" s="63" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="X5" s="63" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Y5" s="63" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Z5" s="63" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AA5" s="63" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AB5" s="63" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AC5" s="63" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AD5" s="63" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="57.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -29238,22 +29709,22 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
       <c r="M6" s="63" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N6" s="63" t="s">
+        <v>363</v>
+      </c>
+      <c r="O6" s="63" t="s">
         <v>362</v>
       </c>
-      <c r="O6" s="63" t="s">
-        <v>361</v>
-      </c>
       <c r="P6" s="63" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q6" s="63" t="s">
         <v>362</v>
       </c>
-      <c r="Q6" s="63" t="s">
-        <v>361</v>
-      </c>
       <c r="R6" s="63" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="S6" s="63"/>
       <c r="T6" s="63"/>
@@ -29270,7 +29741,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="57" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B7" s="63"/>
       <c r="C7" s="63"/>
@@ -29304,7 +29775,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="57" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B8" s="63"/>
       <c r="C8" s="63"/>
@@ -29338,7 +29809,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="57" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B9" s="63"/>
       <c r="C9" s="63"/>
@@ -29372,7 +29843,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="57" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B10" s="63"/>
       <c r="C10" s="63"/>
@@ -29406,7 +29877,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="57" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B11" s="63"/>
       <c r="C11" s="63"/>
@@ -29440,7 +29911,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="57" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B12" s="63"/>
       <c r="C12" s="63"/>
@@ -29474,7 +29945,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="57" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B13" s="63"/>
       <c r="C13" s="63"/>
